--- a/tests/indicators/s-z/Stoch/Stoch.Calc.xlsx
+++ b/tests/indicators/s-z/Stoch/Stoch.Calc.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Repos\Stock.Indicators\tests\indicators\s-z\Stoch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CE7D8C-54E8-4B3E-B5CE-ACD8F0009935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0B234F-4304-4116-B0EA-985D2FBB1E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19770" yWindow="0" windowWidth="19065" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19770" yWindow="0" windowWidth="19065" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STO(14,3,3) (2)" sheetId="2" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +225,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -580,7 +573,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -633,9 +626,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1801,7 +1791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2731E923-8135-4610-ACE5-DB4115D1D954}">
   <dimension ref="A1:R503"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
@@ -31145,7 +31135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
@@ -31160,7 +31150,7 @@
     <col min="12" max="12" width="11" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="19" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.7109375" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9" style="18" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="19" bestFit="1" customWidth="1"/>
   </cols>
@@ -31205,7 +31195,7 @@
       <c r="M1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="13" t="s">
@@ -31246,7 +31236,7 @@
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="16"/>
-      <c r="O2" s="21">
+      <c r="O2" s="20">
         <v>42738</v>
       </c>
       <c r="P2" s="15"/>
@@ -31281,7 +31271,7 @@
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
       <c r="M3" s="16"/>
-      <c r="O3" s="21">
+      <c r="O3" s="20">
         <v>42739</v>
       </c>
       <c r="P3" s="15"/>
@@ -31316,7 +31306,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="16"/>
-      <c r="O4" s="21">
+      <c r="O4" s="20">
         <v>42740</v>
       </c>
       <c r="P4" s="15"/>
@@ -31351,7 +31341,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="16"/>
-      <c r="O5" s="21">
+      <c r="O5" s="20">
         <v>42741</v>
       </c>
       <c r="P5" s="15"/>
@@ -31386,7 +31376,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="16"/>
-      <c r="O6" s="21">
+      <c r="O6" s="20">
         <v>42744</v>
       </c>
       <c r="P6" s="15"/>
@@ -31421,7 +31411,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="16"/>
-      <c r="O7" s="21">
+      <c r="O7" s="20">
         <v>42745</v>
       </c>
       <c r="P7" s="15"/>
@@ -31456,7 +31446,7 @@
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="16"/>
-      <c r="O8" s="21">
+      <c r="O8" s="20">
         <v>42746</v>
       </c>
       <c r="P8" s="15"/>
@@ -31488,10 +31478,10 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
-      <c r="O9" s="21">
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="O9" s="20">
         <v>42747</v>
       </c>
       <c r="P9" s="15"/>
@@ -31532,19 +31522,19 @@
         <f>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</f>
         <v>81.917808219178056</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="12">
         <f>testdata[[#This Row],[K(9)'']]</f>
         <v>81.917808219178056</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="12">
         <f>testdata[[#This Row],[%K]]</f>
         <v>81.917808219178056</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="12">
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>81.917808219178028</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="20">
         <v>42748</v>
       </c>
       <c r="P10" s="15">
@@ -31603,7 +31593,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>38.277524099442132</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="20">
         <v>42752</v>
       </c>
       <c r="P11" s="15">
@@ -31662,7 +31652,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>41.522723429116525</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="20">
         <v>42753</v>
       </c>
       <c r="P12" s="15">
@@ -31721,7 +31711,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>8.8901188444573904</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="20">
         <v>42754</v>
       </c>
       <c r="P13" s="15">
@@ -31780,7 +31770,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>42.525809885062529</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="20">
         <v>42755</v>
       </c>
       <c r="P14" s="15">
@@ -31839,7 +31829,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>32.175527968610083</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="20">
         <v>42758</v>
       </c>
       <c r="P15" s="15">
@@ -31898,7 +31888,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>74.376991843505323</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="20">
         <v>42759</v>
       </c>
       <c r="P16" s="15">
@@ -31957,7 +31947,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>112.92935145877516</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="20">
         <v>42760</v>
       </c>
       <c r="P17" s="17">
@@ -32016,7 +32006,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>118.12594558605275</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="20">
         <v>42761</v>
       </c>
       <c r="P18" s="15">
@@ -32063,19 +32053,19 @@
         <f>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</f>
         <v>83.293556085918439</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="12">
         <f>2*K18/3+testdata[[#This Row],[K(9)'']]/3</f>
         <v>82.518091853931651</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="12">
         <f>2*L18/3+testdata[[#This Row],[%K]]/3</f>
         <v>76.260339468583652</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="12">
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>107.54910139532365</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="20">
         <v>42762</v>
       </c>
       <c r="P19" s="17">
@@ -32134,7 +32124,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>61.065446039104359</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="20">
         <v>42765</v>
       </c>
       <c r="P20" s="15">
@@ -32193,7 +32183,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>38.738999932658714</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="20">
         <v>42766</v>
       </c>
       <c r="P21" s="15">
@@ -32252,7 +32242,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>32.785469132821333</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="20">
         <v>42767</v>
       </c>
       <c r="P22" s="15">
@@ -32311,7 +32301,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>36.467455558920278</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="20">
         <v>42768</v>
       </c>
       <c r="P23" s="15">
@@ -32370,7 +32360,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>80.52891425835486</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="20">
         <v>42769</v>
       </c>
       <c r="P24" s="15">
@@ -32429,7 +32419,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>85.977161839654457</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="20">
         <v>42772</v>
       </c>
       <c r="P25" s="15">
@@ -32488,7 +32478,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>87.769198338047829</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="20">
         <v>42773</v>
       </c>
       <c r="P26" s="15">
@@ -32547,7 +32537,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>100.13958405638778</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="20">
         <v>42774</v>
       </c>
       <c r="P27" s="15">
@@ -32606,7 +32596,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>110.14904195310231</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="20">
         <v>42775</v>
       </c>
       <c r="P28" s="15">
@@ -32665,7 +32655,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>115.9274425667914</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="20">
         <v>42776</v>
       </c>
       <c r="P29" s="15">
@@ -32724,7 +32714,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>116.31927138655192</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="20">
         <v>42779</v>
       </c>
       <c r="P30" s="15">
@@ -32783,7 +32773,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>119.76548948319748</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="20">
         <v>42780</v>
       </c>
       <c r="P31" s="15">
@@ -32842,7 +32832,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>115.29232589712041</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="20">
         <v>42781</v>
       </c>
       <c r="P32" s="15">
@@ -32901,7 +32891,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>107.46553898683021</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33" s="20">
         <v>42782</v>
       </c>
       <c r="P33" s="15">
@@ -32960,7 +32950,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>109.07421536080977</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="20">
         <v>42783</v>
       </c>
       <c r="P34" s="15">
@@ -33019,7 +33009,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>106.88082946556699</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="20">
         <v>42787</v>
       </c>
       <c r="P35" s="15">
@@ -33078,7 +33068,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>100.77651720558606</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="20">
         <v>42788</v>
       </c>
       <c r="P36" s="15">
@@ -33137,7 +33127,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>95.505900020920535</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="20">
         <v>42789</v>
       </c>
       <c r="P37" s="15">
@@ -33196,7 +33186,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>97.716797567794003</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="20">
         <v>42790</v>
       </c>
       <c r="P38" s="15">
@@ -33255,7 +33245,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>97.823694593845346</v>
       </c>
-      <c r="O39" s="21">
+      <c r="O39" s="20">
         <v>42793</v>
       </c>
       <c r="P39" s="15">
@@ -33314,7 +33304,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>76.351850411859573</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O40" s="20">
         <v>42794</v>
       </c>
       <c r="P40" s="15">
@@ -33373,7 +33363,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>82.95824957067714</v>
       </c>
-      <c r="O41" s="21">
+      <c r="O41" s="20">
         <v>42795</v>
       </c>
       <c r="P41" s="15">
@@ -33432,7 +33422,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>57.943149608600606</v>
       </c>
-      <c r="O42" s="21">
+      <c r="O42" s="20">
         <v>42796</v>
       </c>
       <c r="P42" s="15">
@@ -33491,7 +33481,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>39.809017067830723</v>
       </c>
-      <c r="O43" s="21">
+      <c r="O43" s="20">
         <v>42797</v>
       </c>
       <c r="P43" s="15">
@@ -33550,7 +33540,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>16.455048177043636</v>
       </c>
-      <c r="O44" s="21">
+      <c r="O44" s="20">
         <v>42800</v>
       </c>
       <c r="P44" s="15">
@@ -33609,7 +33599,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-8.2318339183993317</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45" s="20">
         <v>42801</v>
       </c>
       <c r="P45" s="15">
@@ -33668,7 +33658,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-25.776534311137539</v>
       </c>
-      <c r="O46" s="21">
+      <c r="O46" s="20">
         <v>42802</v>
       </c>
       <c r="P46" s="15">
@@ -33727,7 +33717,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-26.638334193946662</v>
       </c>
-      <c r="O47" s="21">
+      <c r="O47" s="20">
         <v>42803</v>
       </c>
       <c r="P47" s="15">
@@ -33786,7 +33776,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>0.73269722948208482</v>
       </c>
-      <c r="O48" s="21">
+      <c r="O48" s="20">
         <v>42804</v>
       </c>
       <c r="P48" s="15">
@@ -33845,7 +33835,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>20.660839486824443</v>
       </c>
-      <c r="O49" s="21">
+      <c r="O49" s="20">
         <v>42807</v>
       </c>
       <c r="P49" s="15">
@@ -33904,7 +33894,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>13.869540627593182</v>
       </c>
-      <c r="O50" s="21">
+      <c r="O50" s="20">
         <v>42808</v>
       </c>
       <c r="P50" s="15">
@@ -33963,7 +33953,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>81.966720428410156</v>
       </c>
-      <c r="O51" s="21">
+      <c r="O51" s="20">
         <v>42809</v>
       </c>
       <c r="P51" s="15">
@@ -34022,7 +34012,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>97.362224271907678</v>
       </c>
-      <c r="O52" s="21">
+      <c r="O52" s="20">
         <v>42810</v>
       </c>
       <c r="P52" s="15">
@@ -34081,7 +34071,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>87.624149485096495</v>
       </c>
-      <c r="O53" s="21">
+      <c r="O53" s="20">
         <v>42811</v>
       </c>
       <c r="P53" s="15">
@@ -34140,7 +34130,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>71.777227940146815</v>
       </c>
-      <c r="O54" s="21">
+      <c r="O54" s="20">
         <v>42814</v>
       </c>
       <c r="P54" s="15">
@@ -34199,7 +34189,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-1.2606397250531245</v>
       </c>
-      <c r="O55" s="21">
+      <c r="O55" s="20">
         <v>42815</v>
       </c>
       <c r="P55" s="15">
@@ -34258,7 +34248,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-8.8360783413854733</v>
       </c>
-      <c r="O56" s="21">
+      <c r="O56" s="20">
         <v>42816</v>
       </c>
       <c r="P56" s="15">
@@ -34317,7 +34307,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-14.436376563381174</v>
       </c>
-      <c r="O57" s="21">
+      <c r="O57" s="20">
         <v>42817</v>
       </c>
       <c r="P57" s="15">
@@ -34376,7 +34366,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-15.529057905463276</v>
       </c>
-      <c r="O58" s="21">
+      <c r="O58" s="20">
         <v>42818</v>
       </c>
       <c r="P58" s="15">
@@ -34435,7 +34425,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>3.4669211897892183</v>
       </c>
-      <c r="O59" s="21">
+      <c r="O59" s="20">
         <v>42821</v>
       </c>
       <c r="P59" s="15">
@@ -34494,7 +34484,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>47.910696509323571</v>
       </c>
-      <c r="O60" s="21">
+      <c r="O60" s="20">
         <v>42822</v>
       </c>
       <c r="P60" s="15">
@@ -34553,7 +34543,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>75.063939120555915</v>
       </c>
-      <c r="O61" s="21">
+      <c r="O61" s="20">
         <v>42823</v>
       </c>
       <c r="P61" s="15">
@@ -34612,7 +34602,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>105.43318496016354</v>
       </c>
-      <c r="O62" s="21">
+      <c r="O62" s="20">
         <v>42824</v>
       </c>
       <c r="P62" s="15">
@@ -34671,7 +34661,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>104.71631741253867</v>
       </c>
-      <c r="O63" s="21">
+      <c r="O63" s="20">
         <v>42825</v>
       </c>
       <c r="P63" s="15">
@@ -34730,7 +34720,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>108.79965865821504</v>
       </c>
-      <c r="O64" s="21">
+      <c r="O64" s="20">
         <v>42828</v>
       </c>
       <c r="P64" s="15">
@@ -34789,7 +34779,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>110.61432416780283</v>
       </c>
-      <c r="O65" s="21">
+      <c r="O65" s="20">
         <v>42829</v>
       </c>
       <c r="P65" s="15">
@@ -34848,7 +34838,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>78.75740973378629</v>
       </c>
-      <c r="O66" s="21">
+      <c r="O66" s="20">
         <v>42830</v>
       </c>
       <c r="P66" s="15">
@@ -34907,7 +34897,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>75.779020242002275</v>
       </c>
-      <c r="O67" s="21">
+      <c r="O67" s="20">
         <v>42831</v>
       </c>
       <c r="P67" s="15">
@@ -34966,7 +34956,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>51.574212151213345</v>
       </c>
-      <c r="O68" s="21">
+      <c r="O68" s="20">
         <v>42832</v>
       </c>
       <c r="P68" s="15">
@@ -35025,7 +35015,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>31.692981159772785</v>
       </c>
-      <c r="O69" s="21">
+      <c r="O69" s="20">
         <v>42835</v>
       </c>
       <c r="P69" s="15">
@@ -35084,7 +35074,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>25.424977391615158</v>
       </c>
-      <c r="O70" s="21">
+      <c r="O70" s="20">
         <v>42836</v>
       </c>
       <c r="P70" s="15">
@@ -35143,7 +35133,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-6.6614939933006951</v>
       </c>
-      <c r="O71" s="21">
+      <c r="O71" s="20">
         <v>42837</v>
       </c>
       <c r="P71" s="15">
@@ -35202,7 +35192,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-38.98985231326705</v>
       </c>
-      <c r="O72" s="21">
+      <c r="O72" s="20">
         <v>42838</v>
       </c>
       <c r="P72" s="15">
@@ -35261,7 +35251,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>2.7140550571351696</v>
       </c>
-      <c r="O73" s="21">
+      <c r="O73" s="20">
         <v>42842</v>
       </c>
       <c r="P73" s="15">
@@ -35320,7 +35310,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>7.9646019634297716</v>
       </c>
-      <c r="O74" s="21">
+      <c r="O74" s="20">
         <v>42843</v>
       </c>
       <c r="P74" s="15">
@@ -35379,7 +35369,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>8.6679339010015042</v>
       </c>
-      <c r="O75" s="21">
+      <c r="O75" s="20">
         <v>42844</v>
       </c>
       <c r="P75" s="15">
@@ -35438,7 +35428,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>72.905062555915919</v>
       </c>
-      <c r="O76" s="21">
+      <c r="O76" s="20">
         <v>42845</v>
       </c>
       <c r="P76" s="15">
@@ -35497,7 +35487,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>77.374310038653448</v>
       </c>
-      <c r="O77" s="21">
+      <c r="O77" s="20">
         <v>42846</v>
       </c>
       <c r="P77" s="15">
@@ -35556,7 +35546,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>125.14256586763787</v>
       </c>
-      <c r="O78" s="21">
+      <c r="O78" s="20">
         <v>42849</v>
       </c>
       <c r="P78" s="15">
@@ -35615,7 +35605,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>141.47371969147082</v>
       </c>
-      <c r="O79" s="21">
+      <c r="O79" s="20">
         <v>42850</v>
       </c>
       <c r="P79" s="15">
@@ -35674,7 +35664,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>131.39786356925401</v>
       </c>
-      <c r="O80" s="21">
+      <c r="O80" s="20">
         <v>42851</v>
       </c>
       <c r="P80" s="15">
@@ -35733,7 +35723,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>124.23698385666421</v>
       </c>
-      <c r="O81" s="21">
+      <c r="O81" s="20">
         <v>42852</v>
       </c>
       <c r="P81" s="15">
@@ -35792,7 +35782,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>106.49685496436365</v>
       </c>
-      <c r="O82" s="21">
+      <c r="O82" s="20">
         <v>42853</v>
       </c>
       <c r="P82" s="15">
@@ -35851,7 +35841,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>106.52123681140858</v>
       </c>
-      <c r="O83" s="21">
+      <c r="O83" s="20">
         <v>42856</v>
       </c>
       <c r="P83" s="15">
@@ -35910,7 +35900,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>104.42629849005817</v>
       </c>
-      <c r="O84" s="21">
+      <c r="O84" s="20">
         <v>42857</v>
       </c>
       <c r="P84" s="15">
@@ -35969,7 +35959,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>94.049490430909032</v>
       </c>
-      <c r="O85" s="21">
+      <c r="O85" s="20">
         <v>42858</v>
       </c>
       <c r="P85" s="15">
@@ -36028,7 +36018,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>92.639971499228636</v>
       </c>
-      <c r="O86" s="21">
+      <c r="O86" s="20">
         <v>42859</v>
       </c>
       <c r="P86" s="15">
@@ -36087,7 +36077,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>108.77252843872412</v>
       </c>
-      <c r="O87" s="21">
+      <c r="O87" s="20">
         <v>42860</v>
       </c>
       <c r="P87" s="15">
@@ -36146,7 +36136,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>102.16304152688565</v>
       </c>
-      <c r="O88" s="21">
+      <c r="O88" s="20">
         <v>42863</v>
       </c>
       <c r="P88" s="15">
@@ -36205,7 +36195,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>74.913321718179361</v>
       </c>
-      <c r="O89" s="21">
+      <c r="O89" s="20">
         <v>42864</v>
       </c>
       <c r="P89" s="15">
@@ -36264,7 +36254,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>83.480515962573861</v>
       </c>
-      <c r="O90" s="21">
+      <c r="O90" s="20">
         <v>42865</v>
       </c>
       <c r="P90" s="15">
@@ -36323,7 +36313,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>63.370360406800614</v>
       </c>
-      <c r="O91" s="21">
+      <c r="O91" s="20">
         <v>42866</v>
       </c>
       <c r="P91" s="15">
@@ -36382,7 +36372,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>35.197388702160936</v>
       </c>
-      <c r="O92" s="21">
+      <c r="O92" s="20">
         <v>42867</v>
       </c>
       <c r="P92" s="15">
@@ -36441,7 +36431,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>77.438287684575414</v>
       </c>
-      <c r="O93" s="21">
+      <c r="O93" s="20">
         <v>42870</v>
       </c>
       <c r="P93" s="15">
@@ -36500,7 +36490,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>79.722059222693986</v>
       </c>
-      <c r="O94" s="21">
+      <c r="O94" s="20">
         <v>42871</v>
       </c>
       <c r="P94" s="15">
@@ -36559,7 +36549,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-14.949531988158014</v>
       </c>
-      <c r="O95" s="21">
+      <c r="O95" s="20">
         <v>42872</v>
       </c>
       <c r="P95" s="15">
@@ -36618,7 +36608,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-25.563515346074524</v>
       </c>
-      <c r="O96" s="21">
+      <c r="O96" s="20">
         <v>42873</v>
       </c>
       <c r="P96" s="15">
@@ -36677,7 +36667,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>11.30312185747141</v>
       </c>
-      <c r="O97" s="21">
+      <c r="O97" s="20">
         <v>42874</v>
       </c>
       <c r="P97" s="15">
@@ -36736,7 +36726,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>60.816473790734591</v>
       </c>
-      <c r="O98" s="21">
+      <c r="O98" s="20">
         <v>42877</v>
       </c>
       <c r="P98" s="15">
@@ -36795,7 +36785,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>97.281208011465822</v>
       </c>
-      <c r="O99" s="21">
+      <c r="O99" s="20">
         <v>42878</v>
       </c>
       <c r="P99" s="15">
@@ -36854,7 +36844,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>124.08368179754711</v>
       </c>
-      <c r="O100" s="21">
+      <c r="O100" s="20">
         <v>42879</v>
       </c>
       <c r="P100" s="15">
@@ -36913,7 +36903,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>129.93891078032374</v>
       </c>
-      <c r="O101" s="21">
+      <c r="O101" s="20">
         <v>42880</v>
       </c>
       <c r="P101" s="15">
@@ -36972,7 +36962,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>127.71794674618798</v>
       </c>
-      <c r="O102" s="21">
+      <c r="O102" s="20">
         <v>42881</v>
       </c>
       <c r="P102" s="15">
@@ -37031,7 +37021,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>119.16085260655041</v>
       </c>
-      <c r="O103" s="21">
+      <c r="O103" s="20">
         <v>42885</v>
       </c>
       <c r="P103" s="15">
@@ -37090,7 +37080,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>111.09805922687457</v>
       </c>
-      <c r="O104" s="21">
+      <c r="O104" s="20">
         <v>42886</v>
       </c>
       <c r="P104" s="15">
@@ -37149,7 +37139,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>116.60134957053998</v>
       </c>
-      <c r="O105" s="21">
+      <c r="O105" s="20">
         <v>42887</v>
       </c>
       <c r="P105" s="15">
@@ -37208,7 +37198,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>113.62813179800014</v>
       </c>
-      <c r="O106" s="21">
+      <c r="O106" s="20">
         <v>42888</v>
       </c>
       <c r="P106" s="15">
@@ -37267,7 +37257,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>105.09083150009769</v>
       </c>
-      <c r="O107" s="21">
+      <c r="O107" s="20">
         <v>42891</v>
       </c>
       <c r="P107" s="15">
@@ -37326,7 +37316,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>77.465357428302809</v>
       </c>
-      <c r="O108" s="21">
+      <c r="O108" s="20">
         <v>42892</v>
       </c>
       <c r="P108" s="15">
@@ -37385,7 +37375,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>73.610530295893852</v>
       </c>
-      <c r="O109" s="21">
+      <c r="O109" s="20">
         <v>42893</v>
       </c>
       <c r="P109" s="15">
@@ -37444,7 +37434,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>76.912770426390637</v>
       </c>
-      <c r="O110" s="21">
+      <c r="O110" s="20">
         <v>42894</v>
       </c>
       <c r="P110" s="15">
@@ -37503,7 +37493,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>53.117275615855021</v>
       </c>
-      <c r="O111" s="21">
+      <c r="O111" s="20">
         <v>42895</v>
       </c>
       <c r="P111" s="15">
@@ -37562,7 +37552,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>42.490358946178958</v>
       </c>
-      <c r="O112" s="21">
+      <c r="O112" s="20">
         <v>42898</v>
       </c>
       <c r="P112" s="15">
@@ -37621,7 +37611,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>69.60158878818163</v>
       </c>
-      <c r="O113" s="21">
+      <c r="O113" s="20">
         <v>42899</v>
       </c>
       <c r="P113" s="15">
@@ -37680,7 +37670,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>69.192897549924567</v>
       </c>
-      <c r="O114" s="21">
+      <c r="O114" s="20">
         <v>42900</v>
       </c>
       <c r="P114" s="15">
@@ -37739,7 +37729,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>51.093272214347394</v>
       </c>
-      <c r="O115" s="21">
+      <c r="O115" s="20">
         <v>42901</v>
       </c>
       <c r="P115" s="15">
@@ -37798,7 +37788,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>46.107596225294174</v>
       </c>
-      <c r="O116" s="21">
+      <c r="O116" s="20">
         <v>42902</v>
       </c>
       <c r="P116" s="15">
@@ -37857,7 +37847,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>90.522284357204228</v>
       </c>
-      <c r="O117" s="21">
+      <c r="O117" s="20">
         <v>42905</v>
       </c>
       <c r="P117" s="15">
@@ -37916,7 +37906,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>60.210008642572348</v>
       </c>
-      <c r="O118" s="21">
+      <c r="O118" s="20">
         <v>42906</v>
       </c>
       <c r="P118" s="15">
@@ -37975,7 +37965,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>44.380334302485437</v>
       </c>
-      <c r="O119" s="21">
+      <c r="O119" s="20">
         <v>42907</v>
       </c>
       <c r="P119" s="15">
@@ -38034,7 +38024,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>28.539282494928614</v>
       </c>
-      <c r="O120" s="21">
+      <c r="O120" s="20">
         <v>42908</v>
       </c>
       <c r="P120" s="15">
@@ -38093,7 +38083,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>33.285048593842305</v>
       </c>
-      <c r="O121" s="21">
+      <c r="O121" s="20">
         <v>42909</v>
       </c>
       <c r="P121" s="15">
@@ -38152,7 +38142,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>43.563131874911448</v>
       </c>
-      <c r="O122" s="21">
+      <c r="O122" s="20">
         <v>42912</v>
       </c>
       <c r="P122" s="15">
@@ -38211,7 +38201,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-17.721670879103158</v>
       </c>
-      <c r="O123" s="21">
+      <c r="O123" s="20">
         <v>42913</v>
       </c>
       <c r="P123" s="15">
@@ -38270,7 +38260,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>30.389754933939969</v>
       </c>
-      <c r="O124" s="21">
+      <c r="O124" s="20">
         <v>42914</v>
       </c>
       <c r="P124" s="15">
@@ -38329,7 +38319,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>13.229488271800363</v>
       </c>
-      <c r="O125" s="21">
+      <c r="O125" s="20">
         <v>42915</v>
       </c>
       <c r="P125" s="15">
@@ -38388,7 +38378,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>22.628324414444506</v>
       </c>
-      <c r="O126" s="21">
+      <c r="O126" s="20">
         <v>42916</v>
       </c>
       <c r="P126" s="15">
@@ -38447,7 +38437,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>40.220763199564601</v>
       </c>
-      <c r="O127" s="21">
+      <c r="O127" s="20">
         <v>42919</v>
       </c>
       <c r="P127" s="15">
@@ -38506,7 +38496,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>64.581709644816442</v>
       </c>
-      <c r="O128" s="21">
+      <c r="O128" s="20">
         <v>42921</v>
       </c>
       <c r="P128" s="15">
@@ -38565,7 +38555,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>13.888659652577076</v>
       </c>
-      <c r="O129" s="21">
+      <c r="O129" s="20">
         <v>42922</v>
       </c>
       <c r="P129" s="15">
@@ -38624,7 +38614,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>34.443982780462903</v>
       </c>
-      <c r="O130" s="21">
+      <c r="O130" s="20">
         <v>42923</v>
       </c>
       <c r="P130" s="15">
@@ -38683,7 +38673,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>64.080726697610146</v>
       </c>
-      <c r="O131" s="21">
+      <c r="O131" s="20">
         <v>42926</v>
       </c>
       <c r="P131" s="15">
@@ -38742,7 +38732,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>71.463389458545691</v>
       </c>
-      <c r="O132" s="21">
+      <c r="O132" s="20">
         <v>42927</v>
       </c>
       <c r="P132" s="15">
@@ -38801,7 +38791,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>117.65701138786727</v>
       </c>
-      <c r="O133" s="21">
+      <c r="O133" s="20">
         <v>42928</v>
       </c>
       <c r="P133" s="15">
@@ -38860,7 +38850,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>137.22365499580997</v>
       </c>
-      <c r="O134" s="21">
+      <c r="O134" s="20">
         <v>42929</v>
       </c>
       <c r="P134" s="15">
@@ -38919,7 +38909,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>136.50065052217042</v>
       </c>
-      <c r="O135" s="21">
+      <c r="O135" s="20">
         <v>42930</v>
       </c>
       <c r="P135" s="15">
@@ -38978,7 +38968,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>130.63392945041772</v>
       </c>
-      <c r="O136" s="21">
+      <c r="O136" s="20">
         <v>42933</v>
       </c>
       <c r="P136" s="15">
@@ -39037,7 +39027,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>126.71252722053993</v>
       </c>
-      <c r="O137" s="21">
+      <c r="O137" s="20">
         <v>42934</v>
       </c>
       <c r="P137" s="15">
@@ -39096,7 +39086,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>127.80265330358372</v>
       </c>
-      <c r="O138" s="21">
+      <c r="O138" s="20">
         <v>42935</v>
       </c>
       <c r="P138" s="15">
@@ -39155,7 +39145,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>119.52193301989774</v>
       </c>
-      <c r="O139" s="21">
+      <c r="O139" s="20">
         <v>42936</v>
       </c>
       <c r="P139" s="15">
@@ -39214,7 +39204,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>109.0399213655125</v>
       </c>
-      <c r="O140" s="21">
+      <c r="O140" s="20">
         <v>42937</v>
       </c>
       <c r="P140" s="15">
@@ -39273,7 +39263,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>94.656888141891386</v>
       </c>
-      <c r="O141" s="21">
+      <c r="O141" s="20">
         <v>42940</v>
       </c>
       <c r="P141" s="15">
@@ -39332,7 +39322,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>93.298968999797637</v>
       </c>
-      <c r="O142" s="21">
+      <c r="O142" s="20">
         <v>42941</v>
       </c>
       <c r="P142" s="15">
@@ -39391,7 +39381,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>90.877342087875149</v>
       </c>
-      <c r="O143" s="21">
+      <c r="O143" s="20">
         <v>42942</v>
       </c>
       <c r="P143" s="15">
@@ -39450,7 +39440,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>73.232015100617616</v>
       </c>
-      <c r="O144" s="21">
+      <c r="O144" s="20">
         <v>42943</v>
       </c>
       <c r="P144" s="15">
@@ -39509,7 +39499,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>55.296083329203896</v>
       </c>
-      <c r="O145" s="21">
+      <c r="O145" s="20">
         <v>42944</v>
       </c>
       <c r="P145" s="15">
@@ -39568,7 +39558,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>23.370960884791486</v>
       </c>
-      <c r="O146" s="21">
+      <c r="O146" s="20">
         <v>42947</v>
       </c>
       <c r="P146" s="15">
@@ -39627,7 +39617,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>41.074937457742919</v>
       </c>
-      <c r="O147" s="21">
+      <c r="O147" s="20">
         <v>42948</v>
       </c>
       <c r="P147" s="15">
@@ -39686,7 +39676,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>58.306085829954725</v>
       </c>
-      <c r="O148" s="21">
+      <c r="O148" s="20">
         <v>42949</v>
       </c>
       <c r="P148" s="15">
@@ -39745,7 +39735,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>42.995221170635261</v>
       </c>
-      <c r="O149" s="21">
+      <c r="O149" s="20">
         <v>42950</v>
       </c>
       <c r="P149" s="15">
@@ -39804,7 +39794,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>60.774633821441057</v>
       </c>
-      <c r="O150" s="21">
+      <c r="O150" s="20">
         <v>42951</v>
       </c>
       <c r="P150" s="15">
@@ -39851,19 +39841,19 @@
         <f>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</f>
         <v>94.117647058823749</v>
       </c>
-      <c r="K151" s="15">
+      <c r="K151" s="12">
         <f>2*K150/3+testdata[[#This Row],[K(9)'']]/3</f>
         <v>77.157093162749533</v>
       </c>
-      <c r="L151" s="15">
+      <c r="L151" s="12">
         <f>2*L150/3+testdata[[#This Row],[%K]]/3</f>
         <v>72.820605596270028</v>
       </c>
-      <c r="M151" s="17">
+      <c r="M151" s="12">
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>94.503043428667581</v>
       </c>
-      <c r="O151" s="21">
+      <c r="O151" s="20">
         <v>42954</v>
       </c>
       <c r="P151" s="17">
@@ -39922,7 +39912,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>54.135644295291911</v>
       </c>
-      <c r="O152" s="21">
+      <c r="O152" s="20">
         <v>42955</v>
       </c>
       <c r="P152" s="15">
@@ -39981,7 +39971,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>26.854199556722051</v>
       </c>
-      <c r="O153" s="21">
+      <c r="O153" s="20">
         <v>42956</v>
       </c>
       <c r="P153" s="15">
@@ -40040,7 +40030,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-33.353071396086904</v>
       </c>
-      <c r="O154" s="21">
+      <c r="O154" s="20">
         <v>42957</v>
       </c>
       <c r="P154" s="15">
@@ -40099,7 +40089,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-47.669402524651332</v>
       </c>
-      <c r="O155" s="21">
+      <c r="O155" s="20">
         <v>42958</v>
       </c>
       <c r="P155" s="15">
@@ -40158,7 +40148,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>8.8360685087610591</v>
       </c>
-      <c r="O156" s="21">
+      <c r="O156" s="20">
         <v>42961</v>
       </c>
       <c r="P156" s="15">
@@ -40217,7 +40207,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>38.52338135597131</v>
       </c>
-      <c r="O157" s="21">
+      <c r="O157" s="20">
         <v>42962</v>
       </c>
       <c r="P157" s="15">
@@ -40276,7 +40266,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>63.543997739551742</v>
       </c>
-      <c r="O158" s="21">
+      <c r="O158" s="20">
         <v>42963</v>
       </c>
       <c r="P158" s="15">
@@ -40335,7 +40325,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-1.6166026130006799</v>
       </c>
-      <c r="O159" s="21">
+      <c r="O159" s="20">
         <v>42964</v>
       </c>
       <c r="P159" s="15">
@@ -40394,7 +40384,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-21.216234925888472</v>
       </c>
-      <c r="O160" s="21">
+      <c r="O160" s="20">
         <v>42965</v>
       </c>
       <c r="P160" s="15">
@@ -40453,7 +40443,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-13.16680600035933</v>
       </c>
-      <c r="O161" s="21">
+      <c r="O161" s="20">
         <v>42968</v>
       </c>
       <c r="P161" s="15">
@@ -40512,7 +40502,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>48.138903223679165</v>
       </c>
-      <c r="O162" s="21">
+      <c r="O162" s="20">
         <v>42969</v>
       </c>
       <c r="P162" s="15">
@@ -40571,7 +40561,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>58.297458708779658</v>
       </c>
-      <c r="O163" s="21">
+      <c r="O163" s="20">
         <v>42970</v>
       </c>
       <c r="P163" s="15">
@@ -40630,7 +40620,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>49.360018775877705</v>
       </c>
-      <c r="O164" s="21">
+      <c r="O164" s="20">
         <v>42971</v>
       </c>
       <c r="P164" s="15">
@@ -40689,7 +40679,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>56.347010133926943</v>
       </c>
-      <c r="O165" s="21">
+      <c r="O165" s="20">
         <v>42972</v>
       </c>
       <c r="P165" s="15">
@@ -40748,7 +40738,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>58.70656477777348</v>
       </c>
-      <c r="O166" s="21">
+      <c r="O166" s="20">
         <v>42975</v>
       </c>
       <c r="P166" s="15">
@@ -40807,7 +40797,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>77.472475920032593</v>
       </c>
-      <c r="O167" s="21">
+      <c r="O167" s="20">
         <v>42976</v>
       </c>
       <c r="P167" s="15">
@@ -40866,7 +40856,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>120.55037133768701</v>
       </c>
-      <c r="O168" s="21">
+      <c r="O168" s="20">
         <v>42977</v>
       </c>
       <c r="P168" s="15">
@@ -40925,7 +40915,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>139.36262999124793</v>
       </c>
-      <c r="O169" s="21">
+      <c r="O169" s="20">
         <v>42978</v>
       </c>
       <c r="P169" s="15">
@@ -40984,7 +40974,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>137.48675251652384</v>
       </c>
-      <c r="O170" s="21">
+      <c r="O170" s="20">
         <v>42979</v>
       </c>
       <c r="P170" s="15">
@@ -41043,7 +41033,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>91.365935872739328</v>
       </c>
-      <c r="O171" s="21">
+      <c r="O171" s="20">
         <v>42983</v>
       </c>
       <c r="P171" s="15">
@@ -41102,7 +41092,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>86.152917693524955</v>
       </c>
-      <c r="O172" s="21">
+      <c r="O172" s="20">
         <v>42984</v>
       </c>
       <c r="P172" s="15">
@@ -41161,7 +41151,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>81.728414983417679</v>
       </c>
-      <c r="O173" s="21">
+      <c r="O173" s="20">
         <v>42985</v>
       </c>
       <c r="P173" s="15">
@@ -41220,7 +41210,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>72.148132502451517</v>
       </c>
-      <c r="O174" s="21">
+      <c r="O174" s="20">
         <v>42986</v>
       </c>
       <c r="P174" s="15">
@@ -41279,7 +41269,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>105.2058755576773</v>
       </c>
-      <c r="O175" s="21">
+      <c r="O175" s="20">
         <v>42989</v>
       </c>
       <c r="P175" s="15">
@@ -41338,7 +41328,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>120.02794327636877</v>
       </c>
-      <c r="O176" s="21">
+      <c r="O176" s="20">
         <v>42990</v>
       </c>
       <c r="P176" s="15">
@@ -41397,7 +41387,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>124.50975844305071</v>
       </c>
-      <c r="O177" s="21">
+      <c r="O177" s="20">
         <v>42991</v>
       </c>
       <c r="P177" s="15">
@@ -41456,7 +41446,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>119.19196968480338</v>
       </c>
-      <c r="O178" s="21">
+      <c r="O178" s="20">
         <v>42992</v>
       </c>
       <c r="P178" s="15">
@@ -41515,7 +41505,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>117.17296230179056</v>
       </c>
-      <c r="O179" s="21">
+      <c r="O179" s="20">
         <v>42993</v>
       </c>
       <c r="P179" s="15">
@@ -41574,7 +41564,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>106.95823208514878</v>
       </c>
-      <c r="O180" s="21">
+      <c r="O180" s="20">
         <v>42996</v>
       </c>
       <c r="P180" s="15">
@@ -41633,7 +41623,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>106.72959331085423</v>
       </c>
-      <c r="O181" s="21">
+      <c r="O181" s="20">
         <v>42997</v>
       </c>
       <c r="P181" s="15">
@@ -41692,7 +41682,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>105.85827563999447</v>
       </c>
-      <c r="O182" s="21">
+      <c r="O182" s="20">
         <v>42998</v>
       </c>
       <c r="P182" s="15">
@@ -41751,7 +41741,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>78.816712988532458</v>
       </c>
-      <c r="O183" s="21">
+      <c r="O183" s="20">
         <v>42999</v>
       </c>
       <c r="P183" s="15">
@@ -41810,7 +41800,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>49.643392247277291</v>
       </c>
-      <c r="O184" s="21">
+      <c r="O184" s="20">
         <v>43000</v>
       </c>
       <c r="P184" s="15">
@@ -41869,7 +41859,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>10.726995991564934</v>
       </c>
-      <c r="O185" s="21">
+      <c r="O185" s="20">
         <v>43003</v>
       </c>
       <c r="P185" s="15">
@@ -41928,7 +41918,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>5.7702845697215821</v>
       </c>
-      <c r="O186" s="21">
+      <c r="O186" s="20">
         <v>43004</v>
       </c>
       <c r="P186" s="15">
@@ -41987,7 +41977,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>49.591777928446049</v>
       </c>
-      <c r="O187" s="21">
+      <c r="O187" s="20">
         <v>43005</v>
       </c>
       <c r="P187" s="15">
@@ -42046,7 +42036,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>87.94452403810908</v>
       </c>
-      <c r="O188" s="21">
+      <c r="O188" s="20">
         <v>43006</v>
       </c>
       <c r="P188" s="15">
@@ -42105,7 +42095,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>109.90957117504485</v>
       </c>
-      <c r="O189" s="21">
+      <c r="O189" s="20">
         <v>43007</v>
       </c>
       <c r="P189" s="15">
@@ -42164,7 +42154,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>121.43813439566668</v>
       </c>
-      <c r="O190" s="21">
+      <c r="O190" s="20">
         <v>43010</v>
       </c>
       <c r="P190" s="15">
@@ -42223,7 +42213,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>123.3845529597603</v>
       </c>
-      <c r="O191" s="21">
+      <c r="O191" s="20">
         <v>43011</v>
       </c>
       <c r="P191" s="15">
@@ -42282,7 +42272,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>115.94166147591602</v>
       </c>
-      <c r="O192" s="21">
+      <c r="O192" s="20">
         <v>43012</v>
       </c>
       <c r="P192" s="15">
@@ -42341,7 +42331,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>116.32358801789906</v>
       </c>
-      <c r="O193" s="21">
+      <c r="O193" s="20">
         <v>43013</v>
       </c>
       <c r="P193" s="15">
@@ -42400,7 +42390,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>108.10889803526629</v>
       </c>
-      <c r="O194" s="21">
+      <c r="O194" s="20">
         <v>43014</v>
       </c>
       <c r="P194" s="15">
@@ -42459,7 +42449,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>94.107557583719711</v>
       </c>
-      <c r="O195" s="21">
+      <c r="O195" s="20">
         <v>43017</v>
       </c>
       <c r="P195" s="15">
@@ -42518,7 +42508,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>92.978930682714008</v>
       </c>
-      <c r="O196" s="21">
+      <c r="O196" s="20">
         <v>43018</v>
       </c>
       <c r="P196" s="15">
@@ -42577,7 +42567,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>101.45496035591043</v>
       </c>
-      <c r="O197" s="21">
+      <c r="O197" s="20">
         <v>43019</v>
       </c>
       <c r="P197" s="15">
@@ -42636,7 +42626,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>91.885442869002418</v>
       </c>
-      <c r="O198" s="21">
+      <c r="O198" s="20">
         <v>43020</v>
       </c>
       <c r="P198" s="15">
@@ -42695,7 +42685,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>88.177562032088304</v>
       </c>
-      <c r="O199" s="21">
+      <c r="O199" s="20">
         <v>43021</v>
       </c>
       <c r="P199" s="15">
@@ -42754,7 +42744,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>90.569768308286484</v>
       </c>
-      <c r="O200" s="21">
+      <c r="O200" s="20">
         <v>43024</v>
       </c>
       <c r="P200" s="15">
@@ -42813,7 +42803,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>98.185360159724098</v>
       </c>
-      <c r="O201" s="21">
+      <c r="O201" s="20">
         <v>43025</v>
       </c>
       <c r="P201" s="15">
@@ -42872,7 +42862,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>92.096056767085997</v>
       </c>
-      <c r="O202" s="21">
+      <c r="O202" s="20">
         <v>43026</v>
       </c>
       <c r="P202" s="15">
@@ -42931,7 +42921,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>92.480082536508917</v>
       </c>
-      <c r="O203" s="21">
+      <c r="O203" s="20">
         <v>43027</v>
       </c>
       <c r="P203" s="15">
@@ -42990,7 +42980,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>100.32042936734439</v>
       </c>
-      <c r="O204" s="21">
+      <c r="O204" s="20">
         <v>43028</v>
       </c>
       <c r="P204" s="15">
@@ -43049,7 +43039,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>51.171902648501998</v>
       </c>
-      <c r="O205" s="21">
+      <c r="O205" s="20">
         <v>43031</v>
       </c>
       <c r="P205" s="15">
@@ -43108,7 +43098,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>46.862482256010992</v>
       </c>
-      <c r="O206" s="21">
+      <c r="O206" s="20">
         <v>43032</v>
       </c>
       <c r="P206" s="15">
@@ -43167,7 +43157,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>7.1049544926449357</v>
       </c>
-      <c r="O207" s="21">
+      <c r="O207" s="20">
         <v>43033</v>
       </c>
       <c r="P207" s="15">
@@ -43226,7 +43216,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>4.0224868922837231</v>
       </c>
-      <c r="O208" s="21">
+      <c r="O208" s="20">
         <v>43034</v>
       </c>
       <c r="P208" s="15">
@@ -43285,7 +43275,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>67.273043445303017</v>
       </c>
-      <c r="O209" s="21">
+      <c r="O209" s="20">
         <v>43035</v>
       </c>
       <c r="P209" s="15">
@@ -43344,7 +43334,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>68.338573731870895</v>
       </c>
-      <c r="O210" s="21">
+      <c r="O210" s="20">
         <v>43038</v>
       </c>
       <c r="P210" s="15">
@@ -43403,7 +43393,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>81.832611022776462</v>
       </c>
-      <c r="O211" s="21">
+      <c r="O211" s="20">
         <v>43039</v>
       </c>
       <c r="P211" s="15">
@@ -43462,7 +43452,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>85.054999641918585</v>
       </c>
-      <c r="O212" s="21">
+      <c r="O212" s="20">
         <v>43040</v>
       </c>
       <c r="P212" s="15">
@@ -43521,7 +43511,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>88.671836971555308</v>
       </c>
-      <c r="O213" s="21">
+      <c r="O213" s="20">
         <v>43041</v>
       </c>
       <c r="P213" s="15">
@@ -43580,7 +43570,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>111.08447438803756</v>
       </c>
-      <c r="O214" s="21">
+      <c r="O214" s="20">
         <v>43042</v>
       </c>
       <c r="P214" s="15">
@@ -43639,7 +43629,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>117.53077329911866</v>
       </c>
-      <c r="O215" s="21">
+      <c r="O215" s="20">
         <v>43045</v>
       </c>
       <c r="P215" s="15">
@@ -43698,7 +43688,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>99.952400879129186</v>
       </c>
-      <c r="O216" s="21">
+      <c r="O216" s="20">
         <v>43046</v>
       </c>
       <c r="P216" s="15">
@@ -43757,7 +43747,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>104.03721601534698</v>
       </c>
-      <c r="O217" s="21">
+      <c r="O217" s="20">
         <v>43047</v>
       </c>
       <c r="P217" s="15">
@@ -43816,7 +43806,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>66.981303985939633</v>
       </c>
-      <c r="O218" s="21">
+      <c r="O218" s="20">
         <v>43048</v>
       </c>
       <c r="P218" s="15">
@@ -43875,7 +43865,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>46.810016678502905</v>
       </c>
-      <c r="O219" s="21">
+      <c r="O219" s="20">
         <v>43049</v>
       </c>
       <c r="P219" s="15">
@@ -43934,7 +43924,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>48.595482292657323</v>
       </c>
-      <c r="O220" s="21">
+      <c r="O220" s="20">
         <v>43052</v>
       </c>
       <c r="P220" s="15">
@@ -43993,7 +43983,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>28.111270040981992</v>
       </c>
-      <c r="O221" s="21">
+      <c r="O221" s="20">
         <v>43053</v>
       </c>
       <c r="P221" s="15">
@@ -44052,7 +44042,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-11.317674341838767</v>
       </c>
-      <c r="O222" s="21">
+      <c r="O222" s="20">
         <v>43054</v>
       </c>
       <c r="P222" s="15">
@@ -44111,7 +44101,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>46.396573140690748</v>
       </c>
-      <c r="O223" s="21">
+      <c r="O223" s="20">
         <v>43055</v>
       </c>
       <c r="P223" s="15">
@@ -44170,7 +44160,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>50.832417769955327</v>
       </c>
-      <c r="O224" s="21">
+      <c r="O224" s="20">
         <v>43056</v>
       </c>
       <c r="P224" s="15">
@@ -44229,7 +44219,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>71.507510658792029</v>
       </c>
-      <c r="O225" s="21">
+      <c r="O225" s="20">
         <v>43059</v>
       </c>
       <c r="P225" s="15">
@@ -44288,7 +44278,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>106.7051222013074</v>
       </c>
-      <c r="O226" s="21">
+      <c r="O226" s="20">
         <v>43060</v>
       </c>
       <c r="P226" s="15">
@@ -44347,7 +44337,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>114.95711913137194</v>
       </c>
-      <c r="O227" s="21">
+      <c r="O227" s="20">
         <v>43061</v>
       </c>
       <c r="P227" s="15">
@@ -44406,7 +44396,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>124.46313943954959</v>
       </c>
-      <c r="O228" s="21">
+      <c r="O228" s="20">
         <v>43063</v>
       </c>
       <c r="P228" s="15">
@@ -44465,7 +44455,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>116.39103945366548</v>
       </c>
-      <c r="O229" s="21">
+      <c r="O229" s="20">
         <v>43066</v>
       </c>
       <c r="P229" s="15">
@@ -44524,7 +44514,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>121.77092586869725</v>
       </c>
-      <c r="O230" s="21">
+      <c r="O230" s="20">
         <v>43067</v>
       </c>
       <c r="P230" s="15">
@@ -44583,7 +44573,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>103.9914796320225</v>
       </c>
-      <c r="O231" s="21">
+      <c r="O231" s="20">
         <v>43068</v>
       </c>
       <c r="P231" s="15">
@@ -44642,7 +44632,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>96.825283517911373</v>
       </c>
-      <c r="O232" s="21">
+      <c r="O232" s="20">
         <v>43069</v>
       </c>
       <c r="P232" s="15">
@@ -44701,7 +44691,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>84.165240401235451</v>
       </c>
-      <c r="O233" s="21">
+      <c r="O233" s="20">
         <v>43070</v>
       </c>
       <c r="P233" s="15">
@@ -44760,7 +44750,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>64.002379685096514</v>
       </c>
-      <c r="O234" s="21">
+      <c r="O234" s="20">
         <v>43073</v>
       </c>
       <c r="P234" s="15">
@@ -44819,7 +44809,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>32.607848602744355</v>
       </c>
-      <c r="O235" s="21">
+      <c r="O235" s="20">
         <v>43074</v>
       </c>
       <c r="P235" s="15">
@@ -44878,7 +44868,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>17.516566844096815</v>
       </c>
-      <c r="O236" s="21">
+      <c r="O236" s="20">
         <v>43075</v>
       </c>
       <c r="P236" s="15">
@@ -44937,7 +44927,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>29.173678515879146</v>
       </c>
-      <c r="O237" s="21">
+      <c r="O237" s="20">
         <v>43076</v>
       </c>
       <c r="P237" s="15">
@@ -44996,7 +44986,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>61.204165887112026</v>
       </c>
-      <c r="O238" s="21">
+      <c r="O238" s="20">
         <v>43077</v>
       </c>
       <c r="P238" s="15">
@@ -45055,7 +45045,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>93.26618860622915</v>
       </c>
-      <c r="O239" s="21">
+      <c r="O239" s="20">
         <v>43080</v>
       </c>
       <c r="P239" s="15">
@@ -45114,7 +45104,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>107.1812405135251</v>
       </c>
-      <c r="O240" s="21">
+      <c r="O240" s="20">
         <v>43081</v>
       </c>
       <c r="P240" s="15">
@@ -45173,7 +45163,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>107.13475510427429</v>
       </c>
-      <c r="O241" s="21">
+      <c r="O241" s="20">
         <v>43082</v>
       </c>
       <c r="P241" s="15">
@@ -45232,7 +45222,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>71.52290576092031</v>
       </c>
-      <c r="O242" s="21">
+      <c r="O242" s="20">
         <v>43083</v>
       </c>
       <c r="P242" s="15">
@@ -45291,7 +45281,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>91.004605356419859</v>
       </c>
-      <c r="O243" s="21">
+      <c r="O243" s="20">
         <v>43084</v>
       </c>
       <c r="P243" s="15">
@@ -45350,7 +45340,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>104.21152131669453</v>
       </c>
-      <c r="O244" s="21">
+      <c r="O244" s="20">
         <v>43087</v>
       </c>
       <c r="P244" s="15">
@@ -45409,7 +45399,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>90.814640578276794</v>
       </c>
-      <c r="O245" s="21">
+      <c r="O245" s="20">
         <v>43088</v>
       </c>
       <c r="P245" s="15">
@@ -45468,7 +45458,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>76.038226979991634</v>
       </c>
-      <c r="O246" s="21">
+      <c r="O246" s="20">
         <v>43089</v>
       </c>
       <c r="P246" s="15">
@@ -45527,7 +45517,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>73.688734961819762</v>
       </c>
-      <c r="O247" s="21">
+      <c r="O247" s="20">
         <v>43090</v>
       </c>
       <c r="P247" s="15">
@@ -45586,7 +45576,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>70.461551434399951</v>
       </c>
-      <c r="O248" s="21">
+      <c r="O248" s="20">
         <v>43091</v>
       </c>
       <c r="P248" s="15">
@@ -45645,7 +45635,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>60.482195920486049</v>
       </c>
-      <c r="O249" s="21">
+      <c r="O249" s="20">
         <v>43095</v>
       </c>
       <c r="P249" s="15">
@@ -45704,7 +45694,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>60.331721263365068</v>
       </c>
-      <c r="O250" s="21">
+      <c r="O250" s="20">
         <v>43096</v>
       </c>
       <c r="P250" s="15">
@@ -45751,19 +45741,19 @@
         <f>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</f>
         <v>77.09677419354901</v>
       </c>
-      <c r="K251" s="15">
+      <c r="K251" s="12">
         <f>2*K250/3+testdata[[#This Row],[K(9)'']]/3</f>
         <v>74.365236009352003</v>
       </c>
-      <c r="L251" s="15">
+      <c r="L251" s="12">
         <f>2*L250/3+testdata[[#This Row],[%K]]/3</f>
         <v>75.566014223601073</v>
       </c>
-      <c r="M251" s="17">
+      <c r="M251" s="12">
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>69.562123152355696</v>
       </c>
-      <c r="O251" s="21">
+      <c r="O251" s="20">
         <v>43097</v>
       </c>
       <c r="P251" s="17">
@@ -45822,7 +45812,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-6.1474363264967451</v>
       </c>
-      <c r="O252" s="21">
+      <c r="O252" s="20">
         <v>43098</v>
       </c>
       <c r="P252" s="15">
@@ -45881,7 +45871,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>68.424280975842976</v>
       </c>
-      <c r="O253" s="21">
+      <c r="O253" s="20">
         <v>43102</v>
       </c>
       <c r="P253" s="15">
@@ -45940,7 +45930,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>102.12284303140598</v>
       </c>
-      <c r="O254" s="21">
+      <c r="O254" s="20">
         <v>43103</v>
       </c>
       <c r="P254" s="15">
@@ -45999,7 +45989,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>109.2825100378659</v>
       </c>
-      <c r="O255" s="21">
+      <c r="O255" s="20">
         <v>43104</v>
       </c>
       <c r="P255" s="15">
@@ -46058,7 +46048,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>120.13766143779497</v>
       </c>
-      <c r="O256" s="21">
+      <c r="O256" s="20">
         <v>43105</v>
       </c>
       <c r="P256" s="15">
@@ -46117,7 +46107,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>121.99964981960841</v>
       </c>
-      <c r="O257" s="21">
+      <c r="O257" s="20">
         <v>43108</v>
       </c>
       <c r="P257" s="15">
@@ -46176,7 +46166,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>112.9880933899575</v>
       </c>
-      <c r="O258" s="21">
+      <c r="O258" s="20">
         <v>43109</v>
       </c>
       <c r="P258" s="15">
@@ -46235,7 +46225,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>100.58366361633466</v>
       </c>
-      <c r="O259" s="21">
+      <c r="O259" s="20">
         <v>43110</v>
       </c>
       <c r="P259" s="15">
@@ -46294,7 +46284,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>109.61503390620578</v>
       </c>
-      <c r="O260" s="21">
+      <c r="O260" s="20">
         <v>43111</v>
       </c>
       <c r="P260" s="15">
@@ -46353,7 +46343,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>110.31042382495934</v>
       </c>
-      <c r="O261" s="21">
+      <c r="O261" s="20">
         <v>43112</v>
       </c>
       <c r="P261" s="15">
@@ -46412,7 +46402,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>77.315553565816003</v>
       </c>
-      <c r="O262" s="21">
+      <c r="O262" s="20">
         <v>43116</v>
       </c>
       <c r="P262" s="15">
@@ -46471,7 +46461,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>90.148427344234904</v>
       </c>
-      <c r="O263" s="21">
+      <c r="O263" s="20">
         <v>43117</v>
       </c>
       <c r="P263" s="15">
@@ -46530,7 +46520,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>88.321638822564012</v>
       </c>
-      <c r="O264" s="21">
+      <c r="O264" s="20">
         <v>43118</v>
       </c>
       <c r="P264" s="15">
@@ -46589,7 +46579,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>101.70415389613936</v>
       </c>
-      <c r="O265" s="21">
+      <c r="O265" s="20">
         <v>43119</v>
       </c>
       <c r="P265" s="15">
@@ -46648,7 +46638,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>107.46258794037959</v>
       </c>
-      <c r="O266" s="21">
+      <c r="O266" s="20">
         <v>43122</v>
       </c>
       <c r="P266" s="15">
@@ -46707,7 +46697,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>105.39552026871542</v>
       </c>
-      <c r="O267" s="21">
+      <c r="O267" s="20">
         <v>43123</v>
       </c>
       <c r="P267" s="15">
@@ -46766,7 +46756,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>89.046074700028157</v>
       </c>
-      <c r="O268" s="21">
+      <c r="O268" s="20">
         <v>43124</v>
       </c>
       <c r="P268" s="15">
@@ -46825,7 +46815,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>79.738368512144689</v>
       </c>
-      <c r="O269" s="21">
+      <c r="O269" s="20">
         <v>43125</v>
       </c>
       <c r="P269" s="15">
@@ -46884,7 +46874,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>95.317725437352351</v>
       </c>
-      <c r="O270" s="21">
+      <c r="O270" s="20">
         <v>43126</v>
       </c>
       <c r="P270" s="15">
@@ -46943,7 +46933,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>78.607090969804858</v>
       </c>
-      <c r="O271" s="21">
+      <c r="O271" s="20">
         <v>43129</v>
       </c>
       <c r="P271" s="15">
@@ -47002,7 +46992,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>22.054145351979798</v>
       </c>
-      <c r="O272" s="21">
+      <c r="O272" s="20">
         <v>43130</v>
       </c>
       <c r="P272" s="15">
@@ -47061,7 +47051,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-4.3102318460487368</v>
       </c>
-      <c r="O273" s="21">
+      <c r="O273" s="20">
         <v>43131</v>
       </c>
       <c r="P273" s="15">
@@ -47120,7 +47110,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-28.905031971752067</v>
       </c>
-      <c r="O274" s="21">
+      <c r="O274" s="20">
         <v>43132</v>
       </c>
       <c r="P274" s="15">
@@ -47179,7 +47169,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-61.295977853940286</v>
       </c>
-      <c r="O275" s="21">
+      <c r="O275" s="20">
         <v>43133</v>
       </c>
       <c r="P275" s="15">
@@ -47238,7 +47228,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-66.027367725187077</v>
       </c>
-      <c r="O276" s="21">
+      <c r="O276" s="20">
         <v>43136</v>
       </c>
       <c r="P276" s="15">
@@ -47297,7 +47287,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-18.099124115506868</v>
       </c>
-      <c r="O277" s="21">
+      <c r="O277" s="20">
         <v>43137</v>
       </c>
       <c r="P277" s="15">
@@ -47356,7 +47346,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>2.9580648605722502</v>
       </c>
-      <c r="O278" s="21">
+      <c r="O278" s="20">
         <v>43138</v>
       </c>
       <c r="P278" s="15">
@@ -47415,7 +47405,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-23.523604777670727</v>
       </c>
-      <c r="O279" s="21">
+      <c r="O279" s="20">
         <v>43139</v>
       </c>
       <c r="P279" s="15">
@@ -47474,7 +47464,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>0.13857872562670082</v>
       </c>
-      <c r="O280" s="21">
+      <c r="O280" s="20">
         <v>43140</v>
       </c>
       <c r="P280" s="15">
@@ -47533,7 +47523,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>30.659645463215185</v>
       </c>
-      <c r="O281" s="21">
+      <c r="O281" s="20">
         <v>43143</v>
       </c>
       <c r="P281" s="15">
@@ -47592,7 +47582,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>48.41196172938642</v>
       </c>
-      <c r="O282" s="21">
+      <c r="O282" s="20">
         <v>43144</v>
       </c>
       <c r="P282" s="15">
@@ -47651,7 +47641,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>77.302991219671213</v>
       </c>
-      <c r="O283" s="21">
+      <c r="O283" s="20">
         <v>43145</v>
       </c>
       <c r="P283" s="15">
@@ -47710,7 +47700,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>120.9030948278745</v>
       </c>
-      <c r="O284" s="21">
+      <c r="O284" s="20">
         <v>43146</v>
       </c>
       <c r="P284" s="15">
@@ -47769,7 +47759,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>139.57611774560161</v>
       </c>
-      <c r="O285" s="21">
+      <c r="O285" s="20">
         <v>43147</v>
       </c>
       <c r="P285" s="15">
@@ -47828,7 +47818,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>133.03612555791796</v>
       </c>
-      <c r="O286" s="21">
+      <c r="O286" s="20">
         <v>43151</v>
       </c>
       <c r="P286" s="15">
@@ -47887,7 +47877,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>117.14975075006737</v>
       </c>
-      <c r="O287" s="21">
+      <c r="O287" s="20">
         <v>43152</v>
       </c>
       <c r="P287" s="15">
@@ -47946,7 +47936,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>107.49367261908151</v>
       </c>
-      <c r="O288" s="21">
+      <c r="O288" s="20">
         <v>43153</v>
       </c>
       <c r="P288" s="15">
@@ -48005,7 +47995,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>121.29103092431848</v>
       </c>
-      <c r="O289" s="21">
+      <c r="O289" s="20">
         <v>43154</v>
       </c>
       <c r="P289" s="15">
@@ -48064,7 +48054,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>129.09326700305274</v>
       </c>
-      <c r="O290" s="21">
+      <c r="O290" s="20">
         <v>43157</v>
       </c>
       <c r="P290" s="15">
@@ -48123,7 +48113,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>92.691493546809056</v>
       </c>
-      <c r="O291" s="21">
+      <c r="O291" s="20">
         <v>43158</v>
       </c>
       <c r="P291" s="15">
@@ -48182,7 +48172,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>23.846235247494803</v>
       </c>
-      <c r="O292" s="21">
+      <c r="O292" s="20">
         <v>43159</v>
       </c>
       <c r="P292" s="15">
@@ -48241,7 +48231,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-24.79067296074183</v>
       </c>
-      <c r="O293" s="21">
+      <c r="O293" s="20">
         <v>43160</v>
       </c>
       <c r="P293" s="15">
@@ -48300,7 +48290,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-21.30997343637614</v>
       </c>
-      <c r="O294" s="21">
+      <c r="O294" s="20">
         <v>43161</v>
       </c>
       <c r="P294" s="15">
@@ -48359,7 +48349,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>12.878056652230356</v>
       </c>
-      <c r="O295" s="21">
+      <c r="O295" s="20">
         <v>43164</v>
       </c>
       <c r="P295" s="15">
@@ -48418,7 +48408,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>38.481147677233082</v>
       </c>
-      <c r="O296" s="21">
+      <c r="O296" s="20">
         <v>43165</v>
       </c>
       <c r="P296" s="15">
@@ -48477,7 +48467,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>51.041988120870457</v>
       </c>
-      <c r="O297" s="21">
+      <c r="O297" s="20">
         <v>43166</v>
       </c>
       <c r="P297" s="15">
@@ -48536,7 +48526,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>68.659028328831027</v>
       </c>
-      <c r="O298" s="21">
+      <c r="O298" s="20">
         <v>43167</v>
       </c>
       <c r="P298" s="15">
@@ -48595,7 +48585,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>117.57547424104561</v>
       </c>
-      <c r="O299" s="21">
+      <c r="O299" s="20">
         <v>43168</v>
       </c>
       <c r="P299" s="15">
@@ -48654,7 +48644,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>126.42661887321572</v>
       </c>
-      <c r="O300" s="21">
+      <c r="O300" s="20">
         <v>43171</v>
       </c>
       <c r="P300" s="15">
@@ -48713,7 +48703,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>108.77671165872994</v>
       </c>
-      <c r="O301" s="21">
+      <c r="O301" s="20">
         <v>43172</v>
       </c>
       <c r="P301" s="15">
@@ -48772,7 +48762,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>86.182891311338096</v>
       </c>
-      <c r="O302" s="21">
+      <c r="O302" s="20">
         <v>43173</v>
       </c>
       <c r="P302" s="15">
@@ -48831,7 +48821,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>62.42775560605088</v>
       </c>
-      <c r="O303" s="21">
+      <c r="O303" s="20">
         <v>43174</v>
       </c>
       <c r="P303" s="15">
@@ -48890,7 +48880,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>41.820958283760035</v>
       </c>
-      <c r="O304" s="21">
+      <c r="O304" s="20">
         <v>43175</v>
       </c>
       <c r="P304" s="15">
@@ -48949,7 +48939,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-6.0471688256611742</v>
       </c>
-      <c r="O305" s="21">
+      <c r="O305" s="20">
         <v>43178</v>
       </c>
       <c r="P305" s="15">
@@ -49008,7 +48998,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-19.49020828298336</v>
       </c>
-      <c r="O306" s="21">
+      <c r="O306" s="20">
         <v>43179</v>
       </c>
       <c r="P306" s="15">
@@ -49067,7 +49057,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-26.798452461685685</v>
       </c>
-      <c r="O307" s="21">
+      <c r="O307" s="20">
         <v>43180</v>
       </c>
       <c r="P307" s="15">
@@ -49126,7 +49116,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-43.531063779746574</v>
       </c>
-      <c r="O308" s="21">
+      <c r="O308" s="20">
         <v>43181</v>
       </c>
       <c r="P308" s="15">
@@ -49185,7 +49175,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-47.057144821225833</v>
       </c>
-      <c r="O309" s="21">
+      <c r="O309" s="20">
         <v>43182</v>
       </c>
       <c r="P309" s="15">
@@ -49244,7 +49234,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>2.116336958504391</v>
       </c>
-      <c r="O310" s="21">
+      <c r="O310" s="20">
         <v>43185</v>
       </c>
       <c r="P310" s="15">
@@ -49303,7 +49293,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>0.50570491389214567</v>
       </c>
-      <c r="O311" s="21">
+      <c r="O311" s="20">
         <v>43186</v>
       </c>
       <c r="P311" s="15">
@@ -49362,7 +49352,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-3.7982549355537856</v>
       </c>
-      <c r="O312" s="21">
+      <c r="O312" s="20">
         <v>43187</v>
       </c>
       <c r="P312" s="15">
@@ -49421,7 +49411,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>21.296535636570979</v>
       </c>
-      <c r="O313" s="21">
+      <c r="O313" s="20">
         <v>43188</v>
       </c>
       <c r="P313" s="15">
@@ -49480,7 +49470,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>12.84507522016699</v>
       </c>
-      <c r="O314" s="21">
+      <c r="O314" s="20">
         <v>43192</v>
       </c>
       <c r="P314" s="15">
@@ -49539,7 +49529,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>31.007943512581051</v>
       </c>
-      <c r="O315" s="21">
+      <c r="O315" s="20">
         <v>43193</v>
       </c>
       <c r="P315" s="15">
@@ -49598,7 +49588,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>75.750803166804275</v>
       </c>
-      <c r="O316" s="21">
+      <c r="O316" s="20">
         <v>43194</v>
       </c>
       <c r="P316" s="15">
@@ -49657,7 +49647,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>128.45928986097044</v>
       </c>
-      <c r="O317" s="21">
+      <c r="O317" s="20">
         <v>43195</v>
       </c>
       <c r="P317" s="15">
@@ -49716,7 +49706,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>87.830453070026465</v>
       </c>
-      <c r="O318" s="21">
+      <c r="O318" s="20">
         <v>43196</v>
       </c>
       <c r="P318" s="15">
@@ -49775,7 +49765,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>77.602097298559471</v>
       </c>
-      <c r="O319" s="21">
+      <c r="O319" s="20">
         <v>43199</v>
       </c>
       <c r="P319" s="15">
@@ -49834,7 +49824,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>113.33765193987162</v>
       </c>
-      <c r="O320" s="21">
+      <c r="O320" s="20">
         <v>43200</v>
       </c>
       <c r="P320" s="15">
@@ -49893,7 +49883,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>112.10776210607671</v>
       </c>
-      <c r="O321" s="21">
+      <c r="O321" s="20">
         <v>43201</v>
       </c>
       <c r="P321" s="15">
@@ -49952,7 +49942,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>126.42498271444509</v>
       </c>
-      <c r="O322" s="21">
+      <c r="O322" s="20">
         <v>43202</v>
       </c>
       <c r="P322" s="15">
@@ -50011,7 +50001,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>112.76755642189426</v>
       </c>
-      <c r="O323" s="21">
+      <c r="O323" s="20">
         <v>43203</v>
       </c>
       <c r="P323" s="15">
@@ -50070,7 +50060,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>120.38009168237346</v>
       </c>
-      <c r="O324" s="21">
+      <c r="O324" s="20">
         <v>43206</v>
       </c>
       <c r="P324" s="15">
@@ -50129,7 +50119,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>123.3456352154825</v>
       </c>
-      <c r="O325" s="21">
+      <c r="O325" s="20">
         <v>43207</v>
       </c>
       <c r="P325" s="15">
@@ -50188,7 +50178,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>119.59634914524827</v>
       </c>
-      <c r="O326" s="21">
+      <c r="O326" s="20">
         <v>43208</v>
       </c>
       <c r="P326" s="15">
@@ -50247,7 +50237,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>97.4434306565729</v>
       </c>
-      <c r="O327" s="21">
+      <c r="O327" s="20">
         <v>43209</v>
       </c>
       <c r="P327" s="15">
@@ -50306,7 +50296,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>42.574507879131659</v>
       </c>
-      <c r="O328" s="21">
+      <c r="O328" s="20">
         <v>43210</v>
       </c>
       <c r="P328" s="15">
@@ -50365,7 +50355,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>14.15878052640511</v>
       </c>
-      <c r="O329" s="21">
+      <c r="O329" s="20">
         <v>43213</v>
       </c>
       <c r="P329" s="15">
@@ -50424,7 +50414,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-23.966726970738137</v>
       </c>
-      <c r="O330" s="21">
+      <c r="O330" s="20">
         <v>43214</v>
       </c>
       <c r="P330" s="15">
@@ -50483,7 +50473,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-24.61602072174145</v>
       </c>
-      <c r="O331" s="21">
+      <c r="O331" s="20">
         <v>43215</v>
       </c>
       <c r="P331" s="15">
@@ -50542,7 +50532,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>12.131947834353582</v>
       </c>
-      <c r="O332" s="21">
+      <c r="O332" s="20">
         <v>43216</v>
       </c>
       <c r="P332" s="15">
@@ -50601,7 +50591,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>35.82925538704086</v>
       </c>
-      <c r="O333" s="21">
+      <c r="O333" s="20">
         <v>43217</v>
       </c>
       <c r="P333" s="15">
@@ -50660,7 +50650,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>24.492574921908414</v>
       </c>
-      <c r="O334" s="21">
+      <c r="O334" s="20">
         <v>43220</v>
       </c>
       <c r="P334" s="15">
@@ -50719,7 +50709,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>33.649774322584136</v>
       </c>
-      <c r="O335" s="21">
+      <c r="O335" s="20">
         <v>43221</v>
       </c>
       <c r="P335" s="15">
@@ -50778,7 +50768,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>18.14066064976501</v>
       </c>
-      <c r="O336" s="21">
+      <c r="O336" s="20">
         <v>43222</v>
       </c>
       <c r="P336" s="15">
@@ -50837,7 +50827,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>26.326633252931344</v>
       </c>
-      <c r="O337" s="21">
+      <c r="O337" s="20">
         <v>43223</v>
       </c>
       <c r="P337" s="15">
@@ -50896,7 +50886,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>78.076098030690162</v>
       </c>
-      <c r="O338" s="21">
+      <c r="O338" s="20">
         <v>43224</v>
       </c>
       <c r="P338" s="15">
@@ -50955,7 +50945,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>112.90259819237673</v>
       </c>
-      <c r="O339" s="21">
+      <c r="O339" s="20">
         <v>43227</v>
       </c>
       <c r="P339" s="15">
@@ -51014,7 +51004,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>125.58896880982368</v>
       </c>
-      <c r="O340" s="21">
+      <c r="O340" s="20">
         <v>43228</v>
       </c>
       <c r="P340" s="15">
@@ -51073,7 +51063,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>137.87508851763272</v>
       </c>
-      <c r="O341" s="21">
+      <c r="O341" s="20">
         <v>43229</v>
       </c>
       <c r="P341" s="15">
@@ -51132,7 +51122,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>139.43781505780009</v>
       </c>
-      <c r="O342" s="21">
+      <c r="O342" s="20">
         <v>43230</v>
       </c>
       <c r="P342" s="15">
@@ -51191,7 +51181,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>136.25068311645583</v>
       </c>
-      <c r="O343" s="21">
+      <c r="O343" s="20">
         <v>43231</v>
       </c>
       <c r="P343" s="15">
@@ -51250,7 +51240,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>124.25397440694496</v>
       </c>
-      <c r="O344" s="21">
+      <c r="O344" s="20">
         <v>43234</v>
       </c>
       <c r="P344" s="15">
@@ -51309,7 +51299,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>100.10731264713968</v>
       </c>
-      <c r="O345" s="21">
+      <c r="O345" s="20">
         <v>43235</v>
       </c>
       <c r="P345" s="15">
@@ -51368,7 +51358,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>93.982494766564628</v>
       </c>
-      <c r="O346" s="21">
+      <c r="O346" s="20">
         <v>43236</v>
       </c>
       <c r="P346" s="15">
@@ -51427,7 +51417,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>79.426222807340764</v>
       </c>
-      <c r="O347" s="21">
+      <c r="O347" s="20">
         <v>43237</v>
       </c>
       <c r="P347" s="15">
@@ -51486,7 +51476,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>63.320508749664384</v>
       </c>
-      <c r="O348" s="21">
+      <c r="O348" s="20">
         <v>43238</v>
       </c>
       <c r="P348" s="15">
@@ -51545,7 +51535,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>82.010024663759623</v>
       </c>
-      <c r="O349" s="21">
+      <c r="O349" s="20">
         <v>43241</v>
       </c>
       <c r="P349" s="15">
@@ -51604,7 +51594,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>56.142322780603479</v>
       </c>
-      <c r="O350" s="21">
+      <c r="O350" s="20">
         <v>43242</v>
       </c>
       <c r="P350" s="15">
@@ -51663,7 +51653,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>66.715055652618446</v>
       </c>
-      <c r="O351" s="21">
+      <c r="O351" s="20">
         <v>43243</v>
       </c>
       <c r="P351" s="15">
@@ -51722,7 +51712,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>56.611967691928157</v>
       </c>
-      <c r="O352" s="21">
+      <c r="O352" s="20">
         <v>43244</v>
       </c>
       <c r="P352" s="15">
@@ -51781,7 +51771,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>34.285712139174109</v>
       </c>
-      <c r="O353" s="21">
+      <c r="O353" s="20">
         <v>43245</v>
       </c>
       <c r="P353" s="15">
@@ -51840,7 +51830,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-11.394172385471109</v>
       </c>
-      <c r="O354" s="21">
+      <c r="O354" s="20">
         <v>43249</v>
       </c>
       <c r="P354" s="15">
@@ -51899,7 +51889,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>39.26182024230161</v>
       </c>
-      <c r="O355" s="21">
+      <c r="O355" s="20">
         <v>43250</v>
       </c>
       <c r="P355" s="15">
@@ -51958,7 +51948,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>34.182455480942508</v>
       </c>
-      <c r="O356" s="21">
+      <c r="O356" s="20">
         <v>43251</v>
       </c>
       <c r="P356" s="15">
@@ -52017,7 +52007,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>83.770929238450265</v>
       </c>
-      <c r="O357" s="21">
+      <c r="O357" s="20">
         <v>43252</v>
       </c>
       <c r="P357" s="15">
@@ -52076,7 +52066,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>113.99365159356228</v>
       </c>
-      <c r="O358" s="21">
+      <c r="O358" s="20">
         <v>43255</v>
       </c>
       <c r="P358" s="15">
@@ -52135,7 +52125,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>123.53156159296833</v>
       </c>
-      <c r="O359" s="21">
+      <c r="O359" s="20">
         <v>43256</v>
       </c>
       <c r="P359" s="15">
@@ -52194,7 +52184,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>129.66832852527466</v>
       </c>
-      <c r="O360" s="21">
+      <c r="O360" s="20">
         <v>43257</v>
       </c>
       <c r="P360" s="15">
@@ -52253,7 +52243,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>119.93596141854607</v>
       </c>
-      <c r="O361" s="21">
+      <c r="O361" s="20">
         <v>43258</v>
       </c>
       <c r="P361" s="15">
@@ -52312,7 +52302,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>121.92807961445658</v>
       </c>
-      <c r="O362" s="21">
+      <c r="O362" s="20">
         <v>43259</v>
       </c>
       <c r="P362" s="15">
@@ -52371,7 +52361,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>110.41295445821277</v>
       </c>
-      <c r="O363" s="21">
+      <c r="O363" s="20">
         <v>43262</v>
       </c>
       <c r="P363" s="15">
@@ -52430,7 +52420,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>107.99300139908263</v>
       </c>
-      <c r="O364" s="21">
+      <c r="O364" s="20">
         <v>43263</v>
       </c>
       <c r="P364" s="15">
@@ -52489,7 +52479,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>86.809489758400787</v>
       </c>
-      <c r="O365" s="21">
+      <c r="O365" s="20">
         <v>43264</v>
       </c>
       <c r="P365" s="15">
@@ -52548,7 +52538,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>84.184365767742065</v>
       </c>
-      <c r="O366" s="21">
+      <c r="O366" s="20">
         <v>43265</v>
       </c>
       <c r="P366" s="15">
@@ -52607,7 +52597,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>74.857401964367625</v>
       </c>
-      <c r="O367" s="21">
+      <c r="O367" s="20">
         <v>43266</v>
       </c>
       <c r="P367" s="15">
@@ -52666,7 +52656,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>50.028079625946361</v>
       </c>
-      <c r="O368" s="21">
+      <c r="O368" s="20">
         <v>43269</v>
       </c>
       <c r="P368" s="15">
@@ -52725,7 +52715,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>15.969825931899152</v>
       </c>
-      <c r="O369" s="21">
+      <c r="O369" s="20">
         <v>43270</v>
       </c>
       <c r="P369" s="15">
@@ -52784,7 +52774,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>16.041829985775848</v>
       </c>
-      <c r="O370" s="21">
+      <c r="O370" s="20">
         <v>43271</v>
       </c>
       <c r="P370" s="15">
@@ -52843,7 +52833,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-24.962979731388685</v>
       </c>
-      <c r="O371" s="21">
+      <c r="O371" s="20">
         <v>43272</v>
       </c>
       <c r="P371" s="15">
@@ -52902,7 +52892,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-25.866891565353853</v>
       </c>
-      <c r="O372" s="21">
+      <c r="O372" s="20">
         <v>43273</v>
       </c>
       <c r="P372" s="15">
@@ -52961,7 +52951,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-26.411633226913352</v>
       </c>
-      <c r="O373" s="21">
+      <c r="O373" s="20">
         <v>43276</v>
       </c>
       <c r="P373" s="15">
@@ -53020,7 +53010,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-12.872741432449942</v>
       </c>
-      <c r="O374" s="21">
+      <c r="O374" s="20">
         <v>43277</v>
       </c>
       <c r="P374" s="15">
@@ -53079,7 +53069,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-32.613016558167729</v>
       </c>
-      <c r="O375" s="21">
+      <c r="O375" s="20">
         <v>43278</v>
       </c>
       <c r="P375" s="15">
@@ -53138,7 +53128,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-5.5210020230798307</v>
       </c>
-      <c r="O376" s="21">
+      <c r="O376" s="20">
         <v>43279</v>
       </c>
       <c r="P376" s="15">
@@ -53197,7 +53187,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>16.186320890364954</v>
       </c>
-      <c r="O377" s="21">
+      <c r="O377" s="20">
         <v>43280</v>
       </c>
       <c r="P377" s="15">
@@ -53256,7 +53246,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>36.370402887301196</v>
       </c>
-      <c r="O378" s="21">
+      <c r="O378" s="20">
         <v>43283</v>
       </c>
       <c r="P378" s="15">
@@ -53315,7 +53305,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>35.112155854040708</v>
       </c>
-      <c r="O379" s="21">
+      <c r="O379" s="20">
         <v>43284</v>
       </c>
       <c r="P379" s="15">
@@ -53374,7 +53364,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>72.338959767267369</v>
       </c>
-      <c r="O380" s="21">
+      <c r="O380" s="20">
         <v>43286</v>
       </c>
       <c r="P380" s="15">
@@ -53433,7 +53423,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>125.68525654730985</v>
       </c>
-      <c r="O381" s="21">
+      <c r="O381" s="20">
         <v>43287</v>
       </c>
       <c r="P381" s="15">
@@ -53492,7 +53482,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>152.12403284920538</v>
       </c>
-      <c r="O382" s="21">
+      <c r="O382" s="20">
         <v>43290</v>
       </c>
       <c r="P382" s="15">
@@ -53551,7 +53541,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>157.49217519988639</v>
       </c>
-      <c r="O383" s="21">
+      <c r="O383" s="20">
         <v>43291</v>
       </c>
       <c r="P383" s="15">
@@ -53610,7 +53600,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>129.69134489713622</v>
       </c>
-      <c r="O384" s="21">
+      <c r="O384" s="20">
         <v>43292</v>
       </c>
       <c r="P384" s="15">
@@ -53669,7 +53659,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>136.01797219700018</v>
       </c>
-      <c r="O385" s="21">
+      <c r="O385" s="20">
         <v>43293</v>
       </c>
       <c r="P385" s="15">
@@ -53728,7 +53718,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>131.61553273001874</v>
       </c>
-      <c r="O386" s="21">
+      <c r="O386" s="20">
         <v>43294</v>
       </c>
       <c r="P386" s="15">
@@ -53787,7 +53777,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>122.130638955363</v>
       </c>
-      <c r="O387" s="21">
+      <c r="O387" s="20">
         <v>43297</v>
       </c>
       <c r="P387" s="15">
@@ -53846,7 +53836,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>117.00384398332727</v>
       </c>
-      <c r="O388" s="21">
+      <c r="O388" s="20">
         <v>43298</v>
       </c>
       <c r="P388" s="15">
@@ -53905,7 +53895,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>115.88477230105826</v>
       </c>
-      <c r="O389" s="21">
+      <c r="O389" s="20">
         <v>43299</v>
       </c>
       <c r="P389" s="15">
@@ -53964,7 +53954,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>84.351190622391698</v>
       </c>
-      <c r="O390" s="21">
+      <c r="O390" s="20">
         <v>43300</v>
       </c>
       <c r="P390" s="15">
@@ -54023,7 +54013,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>60.766340522028486</v>
       </c>
-      <c r="O391" s="21">
+      <c r="O391" s="20">
         <v>43301</v>
       </c>
       <c r="P391" s="15">
@@ -54082,7 +54072,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>64.55272741475909</v>
       </c>
-      <c r="O392" s="21">
+      <c r="O392" s="20">
         <v>43304</v>
       </c>
       <c r="P392" s="15">
@@ -54141,7 +54131,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>70.138581421099673</v>
       </c>
-      <c r="O393" s="21">
+      <c r="O393" s="20">
         <v>43305</v>
       </c>
       <c r="P393" s="15">
@@ -54200,7 +54190,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>89.989352265605817</v>
       </c>
-      <c r="O394" s="21">
+      <c r="O394" s="20">
         <v>43306</v>
       </c>
       <c r="P394" s="15">
@@ -54259,7 +54249,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>85.320488384217924</v>
       </c>
-      <c r="O395" s="21">
+      <c r="O395" s="20">
         <v>43307</v>
       </c>
       <c r="P395" s="15">
@@ -54318,7 +54308,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>43.675189684591885</v>
       </c>
-      <c r="O396" s="21">
+      <c r="O396" s="20">
         <v>43308</v>
       </c>
       <c r="P396" s="15">
@@ -54377,7 +54367,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-15.351570364479755</v>
       </c>
-      <c r="O397" s="21">
+      <c r="O397" s="20">
         <v>43311</v>
       </c>
       <c r="P397" s="15">
@@ -54436,7 +54426,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-6.2882246351979916</v>
       </c>
-      <c r="O398" s="21">
+      <c r="O398" s="20">
         <v>43312</v>
       </c>
       <c r="P398" s="15">
@@ -54495,7 +54485,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-7.4829986453183608</v>
       </c>
-      <c r="O399" s="21">
+      <c r="O399" s="20">
         <v>43313</v>
       </c>
       <c r="P399" s="15">
@@ -54554,7 +54544,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>31.641724383126274</v>
       </c>
-      <c r="O400" s="21">
+      <c r="O400" s="20">
         <v>43314</v>
       </c>
       <c r="P400" s="15">
@@ -54613,7 +54603,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>80.104644604400448</v>
       </c>
-      <c r="O401" s="21">
+      <c r="O401" s="20">
         <v>43315</v>
       </c>
       <c r="P401" s="15">
@@ -54672,7 +54662,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>112.96184805651239</v>
       </c>
-      <c r="O402" s="21">
+      <c r="O402" s="20">
         <v>43318</v>
       </c>
       <c r="P402" s="15">
@@ -54731,7 +54721,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>125.0798839469515</v>
       </c>
-      <c r="O403" s="21">
+      <c r="O403" s="20">
         <v>43319</v>
       </c>
       <c r="P403" s="15">
@@ -54790,7 +54780,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>124.77612100124907</v>
       </c>
-      <c r="O404" s="21">
+      <c r="O404" s="20">
         <v>43320</v>
       </c>
       <c r="P404" s="15">
@@ -54849,7 +54839,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>114.19718855644032</v>
       </c>
-      <c r="O405" s="21">
+      <c r="O405" s="20">
         <v>43321</v>
       </c>
       <c r="P405" s="15">
@@ -54908,7 +54898,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>72.265656422380459</v>
       </c>
-      <c r="O406" s="21">
+      <c r="O406" s="20">
         <v>43322</v>
       </c>
       <c r="P406" s="15">
@@ -54967,7 +54957,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>33.187490125676561</v>
       </c>
-      <c r="O407" s="21">
+      <c r="O407" s="20">
         <v>43325</v>
       </c>
       <c r="P407" s="15">
@@ -55026,7 +55016,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>49.01880420006421</v>
       </c>
-      <c r="O408" s="21">
+      <c r="O408" s="20">
         <v>43326</v>
       </c>
       <c r="P408" s="15">
@@ -55085,7 +55075,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>7.4814214978354698</v>
       </c>
-      <c r="O409" s="21">
+      <c r="O409" s="20">
         <v>43327</v>
       </c>
       <c r="P409" s="15">
@@ -55144,7 +55134,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>38.815071554519591</v>
       </c>
-      <c r="O410" s="21">
+      <c r="O410" s="20">
         <v>43328</v>
       </c>
       <c r="P410" s="15">
@@ -55203,7 +55193,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>76.910355647988894</v>
       </c>
-      <c r="O411" s="21">
+      <c r="O411" s="20">
         <v>43329</v>
       </c>
       <c r="P411" s="15">
@@ -55262,7 +55252,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>108.11950320619673</v>
       </c>
-      <c r="O412" s="21">
+      <c r="O412" s="20">
         <v>43332</v>
       </c>
       <c r="P412" s="15">
@@ -55321,7 +55311,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>110.24663345909465</v>
       </c>
-      <c r="O413" s="21">
+      <c r="O413" s="20">
         <v>43333</v>
       </c>
       <c r="P413" s="15">
@@ -55380,7 +55370,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>105.55463057107534</v>
       </c>
-      <c r="O414" s="21">
+      <c r="O414" s="20">
         <v>43334</v>
       </c>
       <c r="P414" s="15">
@@ -55439,7 +55429,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>94.558807062675044</v>
       </c>
-      <c r="O415" s="21">
+      <c r="O415" s="20">
         <v>43335</v>
       </c>
       <c r="P415" s="15">
@@ -55498,7 +55488,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>111.45665575129834</v>
       </c>
-      <c r="O416" s="21">
+      <c r="O416" s="20">
         <v>43336</v>
       </c>
       <c r="P416" s="15">
@@ -55557,7 +55547,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>118.42969823111565</v>
       </c>
-      <c r="O417" s="21">
+      <c r="O417" s="20">
         <v>43339</v>
       </c>
       <c r="P417" s="15">
@@ -55616,7 +55606,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>112.33853501869055</v>
       </c>
-      <c r="O418" s="21">
+      <c r="O418" s="20">
         <v>43340</v>
       </c>
       <c r="P418" s="15">
@@ -55675,7 +55665,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>112.27657050305407</v>
       </c>
-      <c r="O419" s="21">
+      <c r="O419" s="20">
         <v>43341</v>
       </c>
       <c r="P419" s="15">
@@ -55734,7 +55724,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>88.084247037945261</v>
       </c>
-      <c r="O420" s="21">
+      <c r="O420" s="20">
         <v>43342</v>
       </c>
       <c r="P420" s="15">
@@ -55793,7 +55783,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>74.775757529137934</v>
       </c>
-      <c r="O421" s="21">
+      <c r="O421" s="20">
         <v>43343</v>
       </c>
       <c r="P421" s="15">
@@ -55852,7 +55842,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>59.573662977577442</v>
       </c>
-      <c r="O422" s="21">
+      <c r="O422" s="20">
         <v>43347</v>
       </c>
       <c r="P422" s="15">
@@ -55911,7 +55901,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>38.766305492407923</v>
       </c>
-      <c r="O423" s="21">
+      <c r="O423" s="20">
         <v>43348</v>
       </c>
       <c r="P423" s="15">
@@ -55970,7 +55960,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>2.4333414279591921</v>
       </c>
-      <c r="O424" s="21">
+      <c r="O424" s="20">
         <v>43349</v>
       </c>
       <c r="P424" s="15">
@@ -56029,7 +56019,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-29.411663723336176</v>
       </c>
-      <c r="O425" s="21">
+      <c r="O425" s="20">
         <v>43350</v>
       </c>
       <c r="P425" s="15">
@@ -56088,7 +56078,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-26.066617766675336</v>
       </c>
-      <c r="O426" s="21">
+      <c r="O426" s="20">
         <v>43353</v>
       </c>
       <c r="P426" s="15">
@@ -56147,7 +56137,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>4.4320250333112767</v>
       </c>
-      <c r="O427" s="21">
+      <c r="O427" s="20">
         <v>43354</v>
       </c>
       <c r="P427" s="15">
@@ -56206,7 +56196,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>29.224282706364249</v>
       </c>
-      <c r="O428" s="21">
+      <c r="O428" s="20">
         <v>43355</v>
       </c>
       <c r="P428" s="15">
@@ -56265,7 +56255,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>95.748370367810708</v>
       </c>
-      <c r="O429" s="21">
+      <c r="O429" s="20">
         <v>43356</v>
       </c>
       <c r="P429" s="15">
@@ -56324,7 +56314,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>120.59396689612288</v>
       </c>
-      <c r="O430" s="21">
+      <c r="O430" s="20">
         <v>43357</v>
       </c>
       <c r="P430" s="15">
@@ -56383,7 +56373,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>87.010638507155448</v>
       </c>
-      <c r="O431" s="21">
+      <c r="O431" s="20">
         <v>43360</v>
       </c>
       <c r="P431" s="15">
@@ -56442,7 +56432,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>103.88535958992605</v>
       </c>
-      <c r="O432" s="21">
+      <c r="O432" s="20">
         <v>43361</v>
       </c>
       <c r="P432" s="15">
@@ -56501,7 +56491,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>114.60633614679045</v>
       </c>
-      <c r="O433" s="21">
+      <c r="O433" s="20">
         <v>43362</v>
       </c>
       <c r="P433" s="15">
@@ -56560,7 +56550,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>121.98036166599326</v>
       </c>
-      <c r="O434" s="21">
+      <c r="O434" s="20">
         <v>43363</v>
       </c>
       <c r="P434" s="15">
@@ -56619,7 +56609,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>108.61358962211625</v>
       </c>
-      <c r="O435" s="21">
+      <c r="O435" s="20">
         <v>43364</v>
       </c>
       <c r="P435" s="15">
@@ -56678,7 +56668,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>77.058642425490007</v>
       </c>
-      <c r="O436" s="21">
+      <c r="O436" s="20">
         <v>43367</v>
       </c>
       <c r="P436" s="15">
@@ -56737,7 +56727,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>49.535851647568961</v>
       </c>
-      <c r="O437" s="21">
+      <c r="O437" s="20">
         <v>43368</v>
       </c>
       <c r="P437" s="15">
@@ -56796,7 +56786,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>18.532518332692803</v>
       </c>
-      <c r="O438" s="21">
+      <c r="O438" s="20">
         <v>43369</v>
       </c>
       <c r="P438" s="15">
@@ -56855,7 +56845,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>25.061420394588367</v>
       </c>
-      <c r="O439" s="21">
+      <c r="O439" s="20">
         <v>43370</v>
       </c>
       <c r="P439" s="15">
@@ -56914,7 +56904,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>26.002867230112656</v>
       </c>
-      <c r="O440" s="21">
+      <c r="O440" s="20">
         <v>43371</v>
       </c>
       <c r="P440" s="15">
@@ -56973,7 +56963,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>42.902007536436088</v>
       </c>
-      <c r="O441" s="21">
+      <c r="O441" s="20">
         <v>43374</v>
       </c>
       <c r="P441" s="15">
@@ -57032,7 +57022,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>46.840589965426318</v>
       </c>
-      <c r="O442" s="21">
+      <c r="O442" s="20">
         <v>43375</v>
       </c>
       <c r="P442" s="15">
@@ -57091,7 +57081,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>54.915832255508548</v>
       </c>
-      <c r="O443" s="21">
+      <c r="O443" s="20">
         <v>43376</v>
       </c>
       <c r="P443" s="15">
@@ -57150,7 +57140,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>23.984083653077249</v>
       </c>
-      <c r="O444" s="21">
+      <c r="O444" s="20">
         <v>43377</v>
       </c>
       <c r="P444" s="15">
@@ -57209,7 +57199,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-2.1789443384818696E-3</v>
       </c>
-      <c r="O445" s="21">
+      <c r="O445" s="20">
         <v>43378</v>
       </c>
       <c r="P445" s="15">
@@ -57268,7 +57258,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>0.65373572289504978</v>
       </c>
-      <c r="O446" s="21">
+      <c r="O446" s="20">
         <v>43381</v>
       </c>
       <c r="P446" s="15">
@@ -57327,7 +57317,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-2.451852034873184</v>
       </c>
-      <c r="O447" s="21">
+      <c r="O447" s="20">
         <v>43382</v>
       </c>
       <c r="P447" s="15">
@@ -57386,7 +57376,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-27.544527420489203</v>
       </c>
-      <c r="O448" s="21">
+      <c r="O448" s="20">
         <v>43383</v>
       </c>
       <c r="P448" s="15">
@@ -57445,7 +57435,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-29.030916227687356</v>
       </c>
-      <c r="O449" s="21">
+      <c r="O449" s="20">
         <v>43384</v>
       </c>
       <c r="P449" s="15">
@@ -57504,7 +57494,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-5.3552634852250236</v>
       </c>
-      <c r="O450" s="21">
+      <c r="O450" s="20">
         <v>43385</v>
       </c>
       <c r="P450" s="15">
@@ -57563,7 +57553,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>0.19924537078222215</v>
       </c>
-      <c r="O451" s="21">
+      <c r="O451" s="20">
         <v>43388</v>
       </c>
       <c r="P451" s="15">
@@ -57622,7 +57612,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>41.74674791633015</v>
       </c>
-      <c r="O452" s="21">
+      <c r="O452" s="20">
         <v>43389</v>
       </c>
       <c r="P452" s="15">
@@ -57681,7 +57671,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>64.10208865684217</v>
       </c>
-      <c r="O453" s="21">
+      <c r="O453" s="20">
         <v>43390</v>
       </c>
       <c r="P453" s="15">
@@ -57740,7 +57730,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>50.499034541634245</v>
       </c>
-      <c r="O454" s="21">
+      <c r="O454" s="20">
         <v>43391</v>
       </c>
       <c r="P454" s="15">
@@ -57799,7 +57789,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>41.452262731264994</v>
       </c>
-      <c r="O455" s="21">
+      <c r="O455" s="20">
         <v>43392</v>
       </c>
       <c r="P455" s="15">
@@ -57858,7 +57848,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>31.795725991332205</v>
       </c>
-      <c r="O456" s="21">
+      <c r="O456" s="20">
         <v>43395</v>
       </c>
       <c r="P456" s="15">
@@ -57917,7 +57907,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>41.554578091685471</v>
       </c>
-      <c r="O457" s="21">
+      <c r="O457" s="20">
         <v>43396</v>
       </c>
       <c r="P457" s="15">
@@ -57976,7 +57966,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>1.5844533892468178</v>
       </c>
-      <c r="O458" s="21">
+      <c r="O458" s="20">
         <v>43397</v>
       </c>
       <c r="P458" s="15">
@@ -58035,7 +58025,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>19.400220209641475</v>
       </c>
-      <c r="O459" s="21">
+      <c r="O459" s="20">
         <v>43398</v>
       </c>
       <c r="P459" s="15">
@@ -58094,7 +58084,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>8.5462636718310847</v>
       </c>
-      <c r="O460" s="21">
+      <c r="O460" s="20">
         <v>43399</v>
       </c>
       <c r="P460" s="15">
@@ -58153,7 +58143,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>7.8354558972523591</v>
       </c>
-      <c r="O461" s="21">
+      <c r="O461" s="20">
         <v>43402</v>
       </c>
       <c r="P461" s="15">
@@ -58212,7 +58202,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>33.627421230421007</v>
       </c>
-      <c r="O462" s="21">
+      <c r="O462" s="20">
         <v>43403</v>
       </c>
       <c r="P462" s="15">
@@ -58271,7 +58261,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>65.565832530741375</v>
       </c>
-      <c r="O463" s="21">
+      <c r="O463" s="20">
         <v>43404</v>
       </c>
       <c r="P463" s="15">
@@ -58330,7 +58320,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>106.22219802933225</v>
       </c>
-      <c r="O464" s="21">
+      <c r="O464" s="20">
         <v>43405</v>
       </c>
       <c r="P464" s="15">
@@ -58389,7 +58379,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>121.50081710102387</v>
       </c>
-      <c r="O465" s="21">
+      <c r="O465" s="20">
         <v>43406</v>
       </c>
       <c r="P465" s="15">
@@ -58448,7 +58438,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>135.37749949333988</v>
       </c>
-      <c r="O466" s="21">
+      <c r="O466" s="20">
         <v>43409</v>
       </c>
       <c r="P466" s="15">
@@ -58507,7 +58497,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>149.47964503766485</v>
       </c>
-      <c r="O467" s="21">
+      <c r="O467" s="20">
         <v>43410</v>
       </c>
       <c r="P467" s="15">
@@ -58566,7 +58556,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>151.10411405844553</v>
       </c>
-      <c r="O468" s="21">
+      <c r="O468" s="20">
         <v>43411</v>
       </c>
       <c r="P468" s="15">
@@ -58625,7 +58615,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>142.47327491736075</v>
       </c>
-      <c r="O469" s="21">
+      <c r="O469" s="20">
         <v>43412</v>
       </c>
       <c r="P469" s="15">
@@ -58684,7 +58674,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>114.32517605420628</v>
       </c>
-      <c r="O470" s="21">
+      <c r="O470" s="20">
         <v>43413</v>
       </c>
       <c r="P470" s="15">
@@ -58743,7 +58733,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>30.540241307323356</v>
       </c>
-      <c r="O471" s="21">
+      <c r="O471" s="20">
         <v>43416</v>
       </c>
       <c r="P471" s="15">
@@ -58802,7 +58792,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-12.626354643206355</v>
       </c>
-      <c r="O472" s="21">
+      <c r="O472" s="20">
         <v>43417</v>
       </c>
       <c r="P472" s="15">
@@ -58861,7 +58851,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-37.227660094213888</v>
       </c>
-      <c r="O473" s="21">
+      <c r="O473" s="20">
         <v>43418</v>
       </c>
       <c r="P473" s="15">
@@ -58920,7 +58910,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-7.5984780897141206</v>
       </c>
-      <c r="O474" s="21">
+      <c r="O474" s="20">
         <v>43419</v>
       </c>
       <c r="P474" s="15">
@@ -58979,7 +58969,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>17.196750038014784</v>
       </c>
-      <c r="O475" s="21">
+      <c r="O475" s="20">
         <v>43420</v>
       </c>
       <c r="P475" s="15">
@@ -59038,7 +59028,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-8.2136997625751178</v>
       </c>
-      <c r="O476" s="21">
+      <c r="O476" s="20">
         <v>43423</v>
       </c>
       <c r="P476" s="15">
@@ -59097,7 +59087,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-28.362619961826439</v>
       </c>
-      <c r="O477" s="21">
+      <c r="O477" s="20">
         <v>43424</v>
       </c>
       <c r="P477" s="15">
@@ -59156,7 +59146,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-25.98512661109929</v>
       </c>
-      <c r="O478" s="21">
+      <c r="O478" s="20">
         <v>43425</v>
       </c>
       <c r="P478" s="15">
@@ -59215,7 +59205,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-33.354671362477973</v>
       </c>
-      <c r="O479" s="21">
+      <c r="O479" s="20">
         <v>43427</v>
       </c>
       <c r="P479" s="15">
@@ -59274,7 +59264,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>9.7987057766519428</v>
       </c>
-      <c r="O480" s="21">
+      <c r="O480" s="20">
         <v>43430</v>
       </c>
       <c r="P480" s="15">
@@ -59333,7 +59323,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>43.50594748408011</v>
       </c>
-      <c r="O481" s="21">
+      <c r="O481" s="20">
         <v>43431</v>
       </c>
       <c r="P481" s="15">
@@ -59392,7 +59382,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>123.37029856147049</v>
       </c>
-      <c r="O482" s="21">
+      <c r="O482" s="20">
         <v>43432</v>
       </c>
       <c r="P482" s="15">
@@ -59451,7 +59441,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>142.57274817795513</v>
       </c>
-      <c r="O483" s="21">
+      <c r="O483" s="20">
         <v>43433</v>
       </c>
       <c r="P483" s="15">
@@ -59510,7 +59500,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>154.55018779807705</v>
       </c>
-      <c r="O484" s="21">
+      <c r="O484" s="20">
         <v>43434</v>
       </c>
       <c r="P484" s="15">
@@ -59569,7 +59559,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>151.33677585740099</v>
       </c>
-      <c r="O485" s="21">
+      <c r="O485" s="20">
         <v>43437</v>
       </c>
       <c r="P485" s="15">
@@ -59628,7 +59618,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>79.679899167631731</v>
       </c>
-      <c r="O486" s="21">
+      <c r="O486" s="20">
         <v>43438</v>
       </c>
       <c r="P486" s="15">
@@ -59687,7 +59677,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>43.286064877512104</v>
       </c>
-      <c r="O487" s="21">
+      <c r="O487" s="20">
         <v>43440</v>
       </c>
       <c r="P487" s="15">
@@ -59746,7 +59736,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-15.813705313416364</v>
       </c>
-      <c r="O488" s="21">
+      <c r="O488" s="20">
         <v>43441</v>
       </c>
       <c r="P488" s="15">
@@ -59805,7 +59795,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-16.700652900531225</v>
       </c>
-      <c r="O489" s="21">
+      <c r="O489" s="20">
         <v>43444</v>
       </c>
       <c r="P489" s="15">
@@ -59864,7 +59854,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-12.112426342457837</v>
       </c>
-      <c r="O490" s="21">
+      <c r="O490" s="20">
         <v>43445</v>
       </c>
       <c r="P490" s="15">
@@ -59923,7 +59913,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>1.5052903488541745</v>
       </c>
-      <c r="O491" s="21">
+      <c r="O491" s="20">
         <v>43446</v>
       </c>
       <c r="P491" s="15">
@@ -59982,7 +59972,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>10.417805375512444</v>
       </c>
-      <c r="O492" s="21">
+      <c r="O492" s="20">
         <v>43447</v>
       </c>
       <c r="P492" s="15">
@@ -60041,7 +60031,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-10.82566958900361</v>
       </c>
-      <c r="O493" s="21">
+      <c r="O493" s="20">
         <v>43448</v>
       </c>
       <c r="P493" s="15">
@@ -60100,7 +60090,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-19.674598759307102</v>
       </c>
-      <c r="O494" s="21">
+      <c r="O494" s="20">
         <v>43451</v>
       </c>
       <c r="P494" s="15">
@@ -60159,7 +60149,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-17.178249210542887</v>
       </c>
-      <c r="O495" s="21">
+      <c r="O495" s="20">
         <v>43452</v>
       </c>
       <c r="P495" s="15">
@@ -60218,7 +60208,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-14.676754040813933</v>
       </c>
-      <c r="O496" s="21">
+      <c r="O496" s="20">
         <v>43453</v>
       </c>
       <c r="P496" s="15">
@@ -60277,7 +60267,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-8.9689208816128883</v>
       </c>
-      <c r="O497" s="21">
+      <c r="O497" s="20">
         <v>43454</v>
       </c>
       <c r="P497" s="15">
@@ -60336,7 +60326,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-13.719532901635283</v>
       </c>
-      <c r="O498" s="21">
+      <c r="O498" s="20">
         <v>43455</v>
       </c>
       <c r="P498" s="15">
@@ -60395,7 +60385,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>-16.970911487029063</v>
       </c>
-      <c r="O499" s="21">
+      <c r="O499" s="20">
         <v>43458</v>
       </c>
       <c r="P499" s="15">
@@ -60454,7 +60444,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>30.423925787330219</v>
       </c>
-      <c r="O500" s="21">
+      <c r="O500" s="20">
         <v>43460</v>
       </c>
       <c r="P500" s="15">
@@ -60513,7 +60503,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>66.056028979029492</v>
       </c>
-      <c r="O501" s="21">
+      <c r="O501" s="20">
         <v>43461</v>
       </c>
       <c r="P501" s="15">
@@ -60572,7 +60562,7 @@
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>86.627832101384143</v>
       </c>
-      <c r="O502" s="21">
+      <c r="O502" s="20">
         <v>43462</v>
       </c>
       <c r="P502" s="15">
@@ -60619,19 +60609,19 @@
         <f>100*(testdata[[#This Row],[close]]-testdata[[#This Row],[LL]])/(testdata[[#This Row],[HH]]-testdata[[#This Row],[LL]])</f>
         <v>66.976351351351383</v>
       </c>
-      <c r="K503" s="15">
+      <c r="K503" s="12">
         <f>2*K502/3+testdata[[#This Row],[K(9)'']]/3</f>
         <v>46.980679266931602</v>
       </c>
-      <c r="L503" s="15">
+      <c r="L503" s="12">
         <f>2*L502/3+testdata[[#This Row],[%K]]/3</f>
         <v>32.041290426014598</v>
       </c>
-      <c r="M503" s="17">
+      <c r="M503" s="12">
         <f>5*testdata[[#This Row],[%K]]-4*testdata[[#This Row],[%D]]</f>
         <v>106.73823463059961</v>
       </c>
-      <c r="O503" s="21">
+      <c r="O503" s="20">
         <v>43465</v>
       </c>
       <c r="P503" s="17">
